--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vue.js Playbook" sheetId="1" r:id="rId1"/>
+    <sheet name="Vue JS 2 - The Complete Guide" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
   <si>
     <t>Introducing Vue.js</t>
   </si>
@@ -304,13 +305,55 @@
   </si>
   <si>
     <t>Table Of Contents</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>8, 2019 </t>
+  </si>
+  <si>
+    <t>Lectures</t>
+  </si>
+  <si>
+    <t>Maximilian Schwarzmüller</t>
+  </si>
+  <si>
+    <t>4.7 (30,003 ratings)</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Getting Started</t>
+  </si>
+  <si>
+    <t>Using VueJS to Interact with the DOM</t>
+  </si>
+  <si>
+    <t>Using Conditionals and Rendering Lists</t>
+  </si>
+  <si>
+    <t>First Course Project - The Monster Slayer</t>
+  </si>
+  <si>
+    <t>Understanding the VueJS Instance</t>
+  </si>
+  <si>
+    <t>Moving to a "Real" Development Workflow with Webpack and Vue CLI</t>
+  </si>
+  <si>
+    <t>An Introduction to Components</t>
+  </si>
+  <si>
+    <t>Communicating between Components</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +364,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -347,9 +398,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -994,4 +1057,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="83" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.90981481481481474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="4">
+        <v>97641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -4,12 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vue.js Playbook" sheetId="1" r:id="rId1"/>
     <sheet name="Vue JS 2 - The Complete Guide" sheetId="2" r:id="rId2"/>
+    <sheet name="Vue JS 2 - The Complete Gui (2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="filename1" localSheetId="3">Sheet1!$A$1:$A$81</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,8 +24,20 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="filename1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="720" sourceFile="L:\Training Courses\Vue.js\Selected Courses\Pluralsight Vue Getting Started\filename1.txt" tab="0">
+      <textFields>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="647">
   <si>
     <t>Introducing Vue.js</t>
   </si>
@@ -325,28 +342,1642 @@
     <t>Students</t>
   </si>
   <si>
-    <t>Getting Started</t>
-  </si>
-  <si>
-    <t>Using VueJS to Interact with the DOM</t>
-  </si>
-  <si>
-    <t>Using Conditionals and Rendering Lists</t>
-  </si>
-  <si>
-    <t>First Course Project - The Monster Slayer</t>
-  </si>
-  <si>
-    <t>Understanding the VueJS Instance</t>
-  </si>
-  <si>
-    <t>Moving to a "Real" Development Workflow with Webpack and Vue CLI</t>
-  </si>
-  <si>
-    <t>An Introduction to Components</t>
-  </si>
-  <si>
-    <t>Communicating between Components</t>
+    <t>Course Introduction</t>
+  </si>
+  <si>
+    <t>Module Resources &amp; Useful Links</t>
+  </si>
+  <si>
+    <t>Optional: Assignment Starting Code</t>
+  </si>
+  <si>
+    <t>Module Introduction </t>
+  </si>
+  <si>
+    <t>Conditional Rendering with v-if </t>
+  </si>
+  <si>
+    <t>v-else-if in Vue.js 2.1</t>
+  </si>
+  <si>
+    <t>Using an Alternative v-if Syntax </t>
+  </si>
+  <si>
+    <t>Don't Detach it with v-show </t>
+  </si>
+  <si>
+    <t>Rendering Lists with v-for </t>
+  </si>
+  <si>
+    <t>Getting the Current Index </t>
+  </si>
+  <si>
+    <t>Using an Alternative v-for Syntax </t>
+  </si>
+  <si>
+    <t>Looping through Objects </t>
+  </si>
+  <si>
+    <t>Looping through a List of Numbers </t>
+  </si>
+  <si>
+    <t>Keeping Track of Elements when using v-for </t>
+  </si>
+  <si>
+    <t>Time to Practice - Conditionals &amp; Lists </t>
+  </si>
+  <si>
+    <t>1 question</t>
+  </si>
+  <si>
+    <t>Module Wrap Up </t>
+  </si>
+  <si>
+    <t>Module Resources &amp; Useful Links </t>
+  </si>
+  <si>
+    <t>Introduction &amp; Challenge </t>
+  </si>
+  <si>
+    <t>Setting up the Course Project </t>
+  </si>
+  <si>
+    <t>Creating the Vue Instance and Styling the Healthbars </t>
+  </si>
+  <si>
+    <t>Showing the Player Controls Conditionally </t>
+  </si>
+  <si>
+    <t>Implementing a "Start Game" Method </t>
+  </si>
+  <si>
+    <t>Implementing a "Attack" Method </t>
+  </si>
+  <si>
+    <t>Write better Code - Time for Refactoring! </t>
+  </si>
+  <si>
+    <t>Implementing a "Special Attack" </t>
+  </si>
+  <si>
+    <t>Implementing a "Heal" Method </t>
+  </si>
+  <si>
+    <t>Finishing the Action Buttons </t>
+  </si>
+  <si>
+    <t>Creating an Action Log </t>
+  </si>
+  <si>
+    <t>Printing the Log (v-for) </t>
+  </si>
+  <si>
+    <t>Finishing the Log </t>
+  </si>
+  <si>
+    <t>Styling the Log Conditionally </t>
+  </si>
+  <si>
+    <t>Wrap Up </t>
+  </si>
+  <si>
+    <t>Full Application Code</t>
+  </si>
+  <si>
+    <t>Some Basics about the VueJS Instance </t>
+  </si>
+  <si>
+    <t>Using Multiple Vue Instances </t>
+  </si>
+  <si>
+    <t>Accessing the Vue Instance from Outside </t>
+  </si>
+  <si>
+    <t>How VueJS manages your Data and Methods </t>
+  </si>
+  <si>
+    <t>A Closer Look at $el and $data </t>
+  </si>
+  <si>
+    <t>Placing $refs and Using them on your Templates </t>
+  </si>
+  <si>
+    <t>Where to learn more about the Vue API </t>
+  </si>
+  <si>
+    <t>Mounting a Template </t>
+  </si>
+  <si>
+    <t>Using Components </t>
+  </si>
+  <si>
+    <t>Limitations of some Templates </t>
+  </si>
+  <si>
+    <t>How VueJS Updates the DOM </t>
+  </si>
+  <si>
+    <t>The VueJS Instance Lifecycle </t>
+  </si>
+  <si>
+    <t>The VueJS Instance Lifecycle in Practice </t>
+  </si>
+  <si>
+    <t>Why do we need a Development Server? </t>
+  </si>
+  <si>
+    <t>What does "Development Workflow" mean? </t>
+  </si>
+  <si>
+    <t>Using the Vue CLI to create Projects </t>
+  </si>
+  <si>
+    <t>Installing the Vue CLI and Creating a new Project </t>
+  </si>
+  <si>
+    <t>An Overview over the Webpack Template Folder Structure </t>
+  </si>
+  <si>
+    <t>Understanding ".vue" Files </t>
+  </si>
+  <si>
+    <t>Understanding the Object in the Vue File </t>
+  </si>
+  <si>
+    <t>How to Build your App for Production </t>
+  </si>
+  <si>
+    <t>More about ".vue" Files and the CLI </t>
+  </si>
+  <si>
+    <t>Debugging VueJS Projects </t>
+  </si>
+  <si>
+    <t>An Introduction to Components </t>
+  </si>
+  <si>
+    <t>Storing Data in Components with the Data Method </t>
+  </si>
+  <si>
+    <t>Registering Components Locally and Globally </t>
+  </si>
+  <si>
+    <t>The "Root Component" in the App.vue File </t>
+  </si>
+  <si>
+    <t>Creating a Component </t>
+  </si>
+  <si>
+    <t>Time to Practice - Components </t>
+  </si>
+  <si>
+    <t>Time to Practice - Components (Code) </t>
+  </si>
+  <si>
+    <t>Moving to a Better Folder Structure </t>
+  </si>
+  <si>
+    <t>Alternative Folder Structures</t>
+  </si>
+  <si>
+    <t>How to Name your Component Tags (Selectors) </t>
+  </si>
+  <si>
+    <t>Scoping Component Styles </t>
+  </si>
+  <si>
+    <t>Communication Problems </t>
+  </si>
+  <si>
+    <t>Using Props for Parent =&gt; Child Communication </t>
+  </si>
+  <si>
+    <t>Naming "props" </t>
+  </si>
+  <si>
+    <t>Using "props" in the Child Component </t>
+  </si>
+  <si>
+    <t>Validating "props" </t>
+  </si>
+  <si>
+    <t>Using Custom Events for Child =&gt; Parent Communication </t>
+  </si>
+  <si>
+    <t>Understanding Unidirectional Data Flow </t>
+  </si>
+  <si>
+    <t>Communicating with Callback Functions </t>
+  </si>
+  <si>
+    <t>Communication between Sibling Components </t>
+  </si>
+  <si>
+    <t>Using an Event Bus for Communication </t>
+  </si>
+  <si>
+    <t>Centralizing Code in an Event Bus </t>
+  </si>
+  <si>
+    <t>Time to Practice - Component Communication </t>
+  </si>
+  <si>
+    <t>Time to Practice - Component Communication (Code) </t>
+  </si>
+  <si>
+    <t>Setting up the Module Project </t>
+  </si>
+  <si>
+    <t>Passing Content - The Suboptimal Solution </t>
+  </si>
+  <si>
+    <t>Passing Content with Slots </t>
+  </si>
+  <si>
+    <t>How Slot Content gets Compiled and Styled </t>
+  </si>
+  <si>
+    <t>Changed Slot Styling Behavior </t>
+  </si>
+  <si>
+    <t>Using Multiple Slots (Named Slots) </t>
+  </si>
+  <si>
+    <t>Default Slots and Slot Defaults </t>
+  </si>
+  <si>
+    <t>A Summary on Slots </t>
+  </si>
+  <si>
+    <t>Switching Multiple Components with Dynamic Components </t>
+  </si>
+  <si>
+    <t>Understanding Dynamic Component Behavior </t>
+  </si>
+  <si>
+    <t>Keeping Dynamic Components Alive </t>
+  </si>
+  <si>
+    <t>Dynamic Component Lifecycle Hooks </t>
+  </si>
+  <si>
+    <t>Time to Practice - Slots and Dynamic Components </t>
+  </si>
+  <si>
+    <t>Time to Practice - Slots and Dynamic Components (Code)</t>
+  </si>
+  <si>
+    <t>Module Resources &amp; Helpful Links</t>
+  </si>
+  <si>
+    <t>Setting up the Project </t>
+  </si>
+  <si>
+    <t>Initializing the Application </t>
+  </si>
+  <si>
+    <t>Creating the Application Components </t>
+  </si>
+  <si>
+    <t>Passing Data with Props and Slots </t>
+  </si>
+  <si>
+    <t>Allowing Users to Create Quotes with a NewQuote Component </t>
+  </si>
+  <si>
+    <t>Adding Quotes with Custom Events </t>
+  </si>
+  <si>
+    <t>Adding a Info Box </t>
+  </si>
+  <si>
+    <t>Allowing for Quote Deletion </t>
+  </si>
+  <si>
+    <t>Controlling Quotes with a Progress Bar </t>
+  </si>
+  <si>
+    <t>Finishing Touches and State Management </t>
+  </si>
+  <si>
+    <t>Module Resources</t>
+  </si>
+  <si>
+    <t>A Basic &lt;input&gt; Form Binding </t>
+  </si>
+  <si>
+    <t>Grouping Data and Pre-Populating Inputs </t>
+  </si>
+  <si>
+    <t>Modifying User Input with Input Modifiers </t>
+  </si>
+  <si>
+    <t>Binding &lt;textarea&gt; and Saving Line Breaks </t>
+  </si>
+  <si>
+    <t>Using Checkboxes and Saving Data in Arrays </t>
+  </si>
+  <si>
+    <t>Using Radio Buttons </t>
+  </si>
+  <si>
+    <t>Handling Dropdowns with &lt;select&gt; and &lt;option&gt; </t>
+  </si>
+  <si>
+    <t>What v-model does and How to Create a Custom Control </t>
+  </si>
+  <si>
+    <t>Creating a Custom Control (Input) </t>
+  </si>
+  <si>
+    <t>Submitting a Form </t>
+  </si>
+  <si>
+    <t>Time to Practice - Forms </t>
+  </si>
+  <si>
+    <t>Time to Practice - Forms (Code)</t>
+  </si>
+  <si>
+    <t>Understanding Directives </t>
+  </si>
+  <si>
+    <t>How Directives Work - Hook Functions </t>
+  </si>
+  <si>
+    <t>Creating a Simple Directive </t>
+  </si>
+  <si>
+    <t>Passing Values to Custom Directives </t>
+  </si>
+  <si>
+    <t>Passing Arguments to Custom Directives </t>
+  </si>
+  <si>
+    <t>Modifying a Custom Directive with Modifiers </t>
+  </si>
+  <si>
+    <t>Custom Directives - A Summary </t>
+  </si>
+  <si>
+    <t>Registering Directives Locally </t>
+  </si>
+  <si>
+    <t>Using Multiple Modifiers </t>
+  </si>
+  <si>
+    <t>Passing more Complex Values to Directives </t>
+  </si>
+  <si>
+    <t>Time to Practice - Directives </t>
+  </si>
+  <si>
+    <t>Time to Practice - Directives (Code)</t>
+  </si>
+  <si>
+    <t>Creating a Local Filter </t>
+  </si>
+  <si>
+    <t>Global Filters and How to Chain Multiple Filters </t>
+  </si>
+  <si>
+    <t>An (often-times better) Alternative to Filters: Computed Properties </t>
+  </si>
+  <si>
+    <t>Understanding Mixins </t>
+  </si>
+  <si>
+    <t>Creating and Using Mixins </t>
+  </si>
+  <si>
+    <t>How Mixins get Merged </t>
+  </si>
+  <si>
+    <t>Creating a Global Mixin (Special Case!) </t>
+  </si>
+  <si>
+    <t>Mixins and Scope </t>
+  </si>
+  <si>
+    <t>Time to Practice - Filters &amp; Mixins </t>
+  </si>
+  <si>
+    <t>Time to Practice - Filters and Mixins (Code)</t>
+  </si>
+  <si>
+    <t>Understanding Transitions </t>
+  </si>
+  <si>
+    <t>Preparing Code to use Transitions </t>
+  </si>
+  <si>
+    <t>Setting Up a Transition </t>
+  </si>
+  <si>
+    <t>Assigning CSS Classes for Transitions </t>
+  </si>
+  <si>
+    <t>Creating a "Fade" Transition with the CSS Transition Property </t>
+  </si>
+  <si>
+    <t>Creating a "Slide" Transition with the CSS Animation Property </t>
+  </si>
+  <si>
+    <t>Mixing Transition and Animation Properties </t>
+  </si>
+  <si>
+    <t>Animating v-if and v-show </t>
+  </si>
+  <si>
+    <t>Setting Up an Initial (on-load) Animation </t>
+  </si>
+  <si>
+    <t>Using Different CSS Class Names </t>
+  </si>
+  <si>
+    <t>Using Dynamic Names and Attributes </t>
+  </si>
+  <si>
+    <t>Transitioning between Multiple Elements (Theory) </t>
+  </si>
+  <si>
+    <t>Transitioning between Multiple Elements (Practice) </t>
+  </si>
+  <si>
+    <t>Listening to Transition Event Hooks </t>
+  </si>
+  <si>
+    <t>Understanding JavaScript Animations </t>
+  </si>
+  <si>
+    <t>Excluding CSS from your Animation </t>
+  </si>
+  <si>
+    <t>Creating an Animation in JavaScript </t>
+  </si>
+  <si>
+    <t>Animating Dynamic Components </t>
+  </si>
+  <si>
+    <t>Animating Lists with &lt;transition-group&gt; </t>
+  </si>
+  <si>
+    <t>Using &lt;transition-group&gt; - Preparations </t>
+  </si>
+  <si>
+    <t>Using &lt;transition-group&gt; to Animate a List </t>
+  </si>
+  <si>
+    <t>Understanding the App </t>
+  </si>
+  <si>
+    <t>Creating the App </t>
+  </si>
+  <si>
+    <t>Adding Animations </t>
+  </si>
+  <si>
+    <t>The Animated "Monster Slayer" App</t>
+  </si>
+  <si>
+    <t>Accessing Http via vue-resource - Setup </t>
+  </si>
+  <si>
+    <t>Firebase &amp; The Right Database</t>
+  </si>
+  <si>
+    <t>Creating an Application and Setting Up a Server (Firebase) </t>
+  </si>
+  <si>
+    <t>POSTing Data to a Server (Sending a POST Request) </t>
+  </si>
+  <si>
+    <t>GETting and Transforming Data (Sending a GET Request) </t>
+  </si>
+  <si>
+    <t>Configuring vue-resource Globally </t>
+  </si>
+  <si>
+    <t>Intercepting Requests </t>
+  </si>
+  <si>
+    <t>Intercepting Responses </t>
+  </si>
+  <si>
+    <t>Where the "resource" in vue-resource Comes From </t>
+  </si>
+  <si>
+    <t>Creating Custom Resources </t>
+  </si>
+  <si>
+    <t>Resources vs "Normal" Http Requests </t>
+  </si>
+  <si>
+    <t>Understanding Template URLs </t>
+  </si>
+  <si>
+    <t>Setting up the VueJS Router (vue-router) </t>
+  </si>
+  <si>
+    <t>Setting Up and Loading Routes </t>
+  </si>
+  <si>
+    <t>Understanding Routing Modes (Hash vs History) </t>
+  </si>
+  <si>
+    <t>Navigating with Router Links </t>
+  </si>
+  <si>
+    <t>Where am I? - Styling Active Links </t>
+  </si>
+  <si>
+    <t>Navigating from Code (Imperative Navigation) </t>
+  </si>
+  <si>
+    <t>Setting Up Route Parameters </t>
+  </si>
+  <si>
+    <t>Fetching and Using Route Parameters </t>
+  </si>
+  <si>
+    <t>Reacting to Changes in Route Parameters </t>
+  </si>
+  <si>
+    <t>vue-router 2.2: Extract Route Params via "props"</t>
+  </si>
+  <si>
+    <t>Setting Up Child Routes (Nested Routes) </t>
+  </si>
+  <si>
+    <t>Navigating to Nested Routes </t>
+  </si>
+  <si>
+    <t>Making Router Links more Dynamic </t>
+  </si>
+  <si>
+    <t>A Better Way of Creating Links - With Named Routes </t>
+  </si>
+  <si>
+    <t>Using Query Parameters </t>
+  </si>
+  <si>
+    <t>Multiple Router Views (Named Router Views) </t>
+  </si>
+  <si>
+    <t>Redirecting </t>
+  </si>
+  <si>
+    <t>Setting Up "Catch All" Routes / Wildcards </t>
+  </si>
+  <si>
+    <t>Animating Route Transitions </t>
+  </si>
+  <si>
+    <t>Passing the Hash Fragment </t>
+  </si>
+  <si>
+    <t>Controlling the Scroll Behavior </t>
+  </si>
+  <si>
+    <t>Protecting Routes with Guards </t>
+  </si>
+  <si>
+    <t>Using the "beforeEnter" Guard </t>
+  </si>
+  <si>
+    <t>Using the "beforeLeave" Guard </t>
+  </si>
+  <si>
+    <t>Loading Routes Lazily </t>
+  </si>
+  <si>
+    <t>Why a Different State Management May Be Needed </t>
+  </si>
+  <si>
+    <t>Understanding "Centralized State" </t>
+  </si>
+  <si>
+    <t>Using the Centralized State </t>
+  </si>
+  <si>
+    <t>Why a Centralized State Alone Won't Fix It </t>
+  </si>
+  <si>
+    <t>Understanding Getters </t>
+  </si>
+  <si>
+    <t>Using Getters </t>
+  </si>
+  <si>
+    <t>Mapping Getters to Properties </t>
+  </si>
+  <si>
+    <t>Understanding Mutations </t>
+  </si>
+  <si>
+    <t>Using Mutations </t>
+  </si>
+  <si>
+    <t>Why Mutations have to run Synchronously </t>
+  </si>
+  <si>
+    <t>How Actions improve Mutations </t>
+  </si>
+  <si>
+    <t>Using Actions </t>
+  </si>
+  <si>
+    <t>Mapping Actions to Methods </t>
+  </si>
+  <si>
+    <t>A Summary of Vuex </t>
+  </si>
+  <si>
+    <t>Two-Way-Binding (v-model) and Vuex </t>
+  </si>
+  <si>
+    <t>Improving Folder Structures </t>
+  </si>
+  <si>
+    <t>Modularizing the State Management </t>
+  </si>
+  <si>
+    <t>Using Separate Files </t>
+  </si>
+  <si>
+    <t>Using Namespaces to Avoid Naming Problems </t>
+  </si>
+  <si>
+    <t>Auto-namespacing with Vuex 2.1</t>
+  </si>
+  <si>
+    <t>Project Introduction </t>
+  </si>
+  <si>
+    <t>Project Setup and Planning </t>
+  </si>
+  <si>
+    <t>Creating the First Components </t>
+  </si>
+  <si>
+    <t>Setup Project Routes </t>
+  </si>
+  <si>
+    <t>Adding a Header and Navigation </t>
+  </si>
+  <si>
+    <t>Planning the Next Steps </t>
+  </si>
+  <si>
+    <t>Creating Stocks Components </t>
+  </si>
+  <si>
+    <t>Adding a "Buy" Button </t>
+  </si>
+  <si>
+    <t>Setting up the Vuex State Management </t>
+  </si>
+  <si>
+    <t>Adding a Portfolio Module to Vuex </t>
+  </si>
+  <si>
+    <t>Working on the Portfolio Stocks </t>
+  </si>
+  <si>
+    <t>Connecting the Portfolio with Vuex </t>
+  </si>
+  <si>
+    <t>Time to fix some Errors </t>
+  </si>
+  <si>
+    <t>Displaying the Funds </t>
+  </si>
+  <si>
+    <t>Adding some Order Checks </t>
+  </si>
+  <si>
+    <t>Making Funds Look Nicer with Filters </t>
+  </si>
+  <si>
+    <t>Ending the Day - Randomizing Stocks </t>
+  </si>
+  <si>
+    <t>Animating the Route Transitions </t>
+  </si>
+  <si>
+    <t>Saving &amp; Fetching Data - Adding a Dropdown </t>
+  </si>
+  <si>
+    <t>Setting up vue-resource and Firebase </t>
+  </si>
+  <si>
+    <t>Saving Data (PUT Request) </t>
+  </si>
+  <si>
+    <t>Fetching Data (GET Request) </t>
+  </si>
+  <si>
+    <t>Testing and Bug Fixes </t>
+  </si>
+  <si>
+    <t>Project Wrap Up </t>
+  </si>
+  <si>
+    <t>Bonus: Debugging Vuex with Vue Developer Tools </t>
+  </si>
+  <si>
+    <t>Preparing for Deployment </t>
+  </si>
+  <si>
+    <t>Deploying the App (Example: AWS S3) </t>
+  </si>
+  <si>
+    <t>Courses Roundup</t>
+  </si>
+  <si>
+    <t>About this Section (Please Read!)</t>
+  </si>
+  <si>
+    <t>Time to Practice (1) - Outputting Data to Templates (Problem) </t>
+  </si>
+  <si>
+    <t>Time to Practice (1) - Outputting Data to Templates (Solution) </t>
+  </si>
+  <si>
+    <t>Time to Practice (1) - Outputting Data to Templates (Code)</t>
+  </si>
+  <si>
+    <t>Time to Practice (2) - Events (Problem) </t>
+  </si>
+  <si>
+    <t>Time to Practice (2) - Events (Solution)</t>
+  </si>
+  <si>
+    <t>Time to Practice (2) - Events (Code)</t>
+  </si>
+  <si>
+    <t>Time to Practice (3) - Reactive Properties (Problem) </t>
+  </si>
+  <si>
+    <t>Time to Practice (3) - Reactive Properties (Solution) </t>
+  </si>
+  <si>
+    <t>Time to Practice (3) - Reactive Properties (Code)</t>
+  </si>
+  <si>
+    <t>Time to Practice (4) - Styling (Problem) </t>
+  </si>
+  <si>
+    <t>Time to Practice (4) - Styling (Solution) </t>
+  </si>
+  <si>
+    <t>Time to Practice (4) - Styling (Code)</t>
+  </si>
+  <si>
+    <t>Time to Practice (5) - Conditionals and Lists (Problem) </t>
+  </si>
+  <si>
+    <t>Time to Practice (5) - Conditionals and Lists (Solution) </t>
+  </si>
+  <si>
+    <t>Time to Practice (6) - Components (Problem) </t>
+  </si>
+  <si>
+    <t>Time to Practice (6) - Components (Solution) </t>
+  </si>
+  <si>
+    <t>Time to Practice (7) - Component Communication (Problem) </t>
+  </si>
+  <si>
+    <t>Time to Practice (7) - Component Communication (Solution) </t>
+  </si>
+  <si>
+    <t>Time to Practice (8) - Slots and Dynamic Components (Problem) </t>
+  </si>
+  <si>
+    <t>Time to Practice (8) - Slots and Dynamic Components (Solution) </t>
+  </si>
+  <si>
+    <t>Time to Practice (9) - Forms (Problem) </t>
+  </si>
+  <si>
+    <t>Time to Practice (9) - Forms (Solution) </t>
+  </si>
+  <si>
+    <t>Time to Practice (10) - Directives (Problem) </t>
+  </si>
+  <si>
+    <t>Time to Practice (10) - Directives (Solution) </t>
+  </si>
+  <si>
+    <t>Time to Practice (11) - Filters and Mixins (Problem) </t>
+  </si>
+  <si>
+    <t>Time to Practice (11) - Filters and Mixins (Solution)</t>
+  </si>
+  <si>
+    <t>About this Section </t>
+  </si>
+  <si>
+    <t>Project Setup </t>
+  </si>
+  <si>
+    <t>Axios Setup </t>
+  </si>
+  <si>
+    <t>Sending a POST Request </t>
+  </si>
+  <si>
+    <t>Sending a GET Request </t>
+  </si>
+  <si>
+    <t>Accessing &amp; Using Response Data </t>
+  </si>
+  <si>
+    <t>Setting a Global Request Configuration </t>
+  </si>
+  <si>
+    <t>Using Interceptors </t>
+  </si>
+  <si>
+    <t>Custom Axios Instances </t>
+  </si>
+  <si>
+    <t>Useful Resources &amp; Links </t>
+  </si>
+  <si>
+    <t>How Authentication Works in SPAs </t>
+  </si>
+  <si>
+    <t>Adding User Signup </t>
+  </si>
+  <si>
+    <t>Adding User Signin (Login) </t>
+  </si>
+  <si>
+    <t>Using Vuex to send Auth Requests </t>
+  </si>
+  <si>
+    <t>Storing Auth Data in Vuex </t>
+  </si>
+  <si>
+    <t>More about the Token (JWT) </t>
+  </si>
+  <si>
+    <t>Accessing other Resources from Vuex </t>
+  </si>
+  <si>
+    <t>Sending the Token to the Backend </t>
+  </si>
+  <si>
+    <t>Protecting Routes (Auth Guard) </t>
+  </si>
+  <si>
+    <t>Updating the UI State (based on Authentication State) </t>
+  </si>
+  <si>
+    <t>Adding User Logout </t>
+  </si>
+  <si>
+    <t>Adding Auto Logout </t>
+  </si>
+  <si>
+    <t>Adding Auto Login </t>
+  </si>
+  <si>
+    <t>Add a Firebase Project! </t>
+  </si>
+  <si>
+    <t>Installing Vuelidate </t>
+  </si>
+  <si>
+    <t>Adding a Validator </t>
+  </si>
+  <si>
+    <t>Adding Validation UI Feedback </t>
+  </si>
+  <si>
+    <t>Controlling Styles for Invalid Entries </t>
+  </si>
+  <si>
+    <t>More Validators </t>
+  </si>
+  <si>
+    <t>Validating Passwords For Equality </t>
+  </si>
+  <si>
+    <t>Using the Required-Unless Validator </t>
+  </si>
+  <si>
+    <t>Validating Arrays </t>
+  </si>
+  <si>
+    <t>Controlling the Form Submit Button </t>
+  </si>
+  <si>
+    <t>Creating Custom Validators </t>
+  </si>
+  <si>
+    <t>Async Validators </t>
+  </si>
+  <si>
+    <t>Vue CLI 3 Summary</t>
+  </si>
+  <si>
+    <t>Module Introduction</t>
+  </si>
+  <si>
+    <t>Creating a Project</t>
+  </si>
+  <si>
+    <t>Analyzing the Created Project</t>
+  </si>
+  <si>
+    <t>Using Plugins</t>
+  </si>
+  <si>
+    <t>CSS Pre-Processors</t>
+  </si>
+  <si>
+    <t>Environment Variables</t>
+  </si>
+  <si>
+    <t>Building the Project</t>
+  </si>
+  <si>
+    <t>Instant Prototyping</t>
+  </si>
+  <si>
+    <t>Different Build Targets</t>
+  </si>
+  <si>
+    <t>Using the "Old" CLI Templates (vue init)</t>
+  </si>
+  <si>
+    <t>Using the Graphical User Interface (GUI)</t>
+  </si>
+  <si>
+    <t>Let's Create our First VueJS Application </t>
+  </si>
+  <si>
+    <t>Extending the VueJS Application </t>
+  </si>
+  <si>
+    <t>Course Structure </t>
+  </si>
+  <si>
+    <t>Take Advantage of all Course Resources! </t>
+  </si>
+  <si>
+    <t>Setup VueJS Locally </t>
+  </si>
+  <si>
+    <t>Understanding VueJS Templates </t>
+  </si>
+  <si>
+    <t>How the VueJS Template Syntax and Instance Work Together </t>
+  </si>
+  <si>
+    <t>Accessing Data in the Vue Instance </t>
+  </si>
+  <si>
+    <t>Binding to Attributes </t>
+  </si>
+  <si>
+    <t>Understanding and Using Directives </t>
+  </si>
+  <si>
+    <t>Disable Re-Rendering with v-once </t>
+  </si>
+  <si>
+    <t>How to Output Raw HTML </t>
+  </si>
+  <si>
+    <t>Time to Practice - Outputting Data to Templates </t>
+  </si>
+  <si>
+    <t>Listening to Events </t>
+  </si>
+  <si>
+    <t>Getting Event Data from the Event Object </t>
+  </si>
+  <si>
+    <t>Passing your own Arguments with Events </t>
+  </si>
+  <si>
+    <t>Modifying an Event - with Event Modifiers </t>
+  </si>
+  <si>
+    <t>Listening to Keyboard Events </t>
+  </si>
+  <si>
+    <t>Time to Practice - Events </t>
+  </si>
+  <si>
+    <t>Writing JavaScript Code in the Templates </t>
+  </si>
+  <si>
+    <t>Using Two-Way-Binding </t>
+  </si>
+  <si>
+    <t>Reacting to Changes with Computed Properties </t>
+  </si>
+  <si>
+    <t>An Alternative to Computed Properties: Watching for Changes </t>
+  </si>
+  <si>
+    <t>Saving Time with Shorthands </t>
+  </si>
+  <si>
+    <t>Time to Practice - Reactive Properties </t>
+  </si>
+  <si>
+    <t>Dynamic Styling with CSS Classes - Basics </t>
+  </si>
+  <si>
+    <t>Dynamic Styling with CSS Classes - Using Objects </t>
+  </si>
+  <si>
+    <t>Dynamic Styling with CSS Classes - Using Names </t>
+  </si>
+  <si>
+    <t>Setting Styles Dynamically (without CSS Classes) </t>
+  </si>
+  <si>
+    <t>Styling Elements with the Array Syntax </t>
+  </si>
+  <si>
+    <t>Time to Practice - Styling </t>
+  </si>
+  <si>
+    <t>Getting Started - 19:55</t>
+  </si>
+  <si>
+    <t>Using VueJS to Interact with the DOM - 01:03:16</t>
+  </si>
+  <si>
+    <t>Using Conditionals and Rendering Lists - 24:03</t>
+  </si>
+  <si>
+    <t>First Course Project - The Monster Slayer - 43:19</t>
+  </si>
+  <si>
+    <t>Understanding the VueJS Instance - 53:30</t>
+  </si>
+  <si>
+    <t>Moving to a "Real" Development Workflow with Webpack and Vue CLI - 29:55</t>
+  </si>
+  <si>
+    <t>An Introduction to Components - 39:55</t>
+  </si>
+  <si>
+    <t>Communicating between Components - 38:43</t>
+  </si>
+  <si>
+    <t>Advanced Component Usage - 26:53</t>
+  </si>
+  <si>
+    <t>Second Course Project - Wonderful Quotes - 29:15</t>
+  </si>
+  <si>
+    <t>Handling User Input with Forms - 35:54</t>
+  </si>
+  <si>
+    <t>Using and Creating Directives - 24:04</t>
+  </si>
+  <si>
+    <t>Improving your App with Filters and Mixins - 28:03</t>
+  </si>
+  <si>
+    <t>Adding Animations and Transitions - 01:31:47</t>
+  </si>
+  <si>
+    <t>Connecting to Servers via Http - Using vue-resource - 48:12</t>
+  </si>
+  <si>
+    <t>Routing in a VueJS Application - 01:25:05</t>
+  </si>
+  <si>
+    <t>Better State Management with Vuex - 01:12:19</t>
+  </si>
+  <si>
+    <t>Final Project - The Stock Trader - 01:44:12</t>
+  </si>
+  <si>
+    <t>Deploying a VueJS Application - 08:54</t>
+  </si>
+  <si>
+    <t>Course Roundup - 00:58</t>
+  </si>
+  <si>
+    <t>All Course Exercises ("Time to Practice") - 01:54:31</t>
+  </si>
+  <si>
+    <t>Bonus: Using Axios instead of vue-resource - 38:27</t>
+  </si>
+  <si>
+    <t>Bonus: Authentication in Vue Apps - 01:07:16</t>
+  </si>
+  <si>
+    <t>Bonus: Form Input Validation - 01:02:01</t>
+  </si>
+  <si>
+    <t>Bonus: Vue CLI 3 - 49:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Course Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting Started with Vue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Displaying Data and Responding to Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Displaying Lists and Conditional Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interacting within a Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Component Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accessing Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Navigating Vue Apps with Routing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Managing Data State with Vuex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Course Overview:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">./2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting Started with Vue:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">./3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Displaying Data and Responding to Events:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accepting User Input with Two</t>
+  </si>
+  <si>
+    <t>way Bindings.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">./4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Displaying Lists and Conditional Content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">./5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interacting within a Component:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">./6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Component Communication:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">./7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accessing Data:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">./8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Navigating Vue Apps with Routing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">./9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Managing Data State with Vuex:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Final Solution Walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Getting Started with Vue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create Your First Vue App</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting Familiar with the Vue CLI and Tooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting and Exploring the Sample Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Learn How a Vue App Starts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting Started Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introducing Vue Data Binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creating Bindings in the Header Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Display Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Handling Event </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Checkbox, Radio Buttons, and Style Bindings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select and Class Bindings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Tips for Displaying Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introducing Vue Lists and Conditionals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rendering Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selecting and Highlighting Items from a List</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adding and Removing Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Showing and Hiding Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Lists and Conditionals with Master Detail Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introducing Single Component Interactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defining Data Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creating Computed Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Using Component Lifecycle Hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Watching Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creating Custom Date Filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Tools Inside of a Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introducing Component Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nesting Components in Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Passing Values to Child Components with Props</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refactor One Component into Parent and Child Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Passing Objects in Props</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communicating from Child to Parent with Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sharing Code with Mixins and Modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Component Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Using the axios HTTP Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fetching Data from an API</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting Data for Different Environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parsing Responses and Error Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Accessing Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introducing Routing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adding Routing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adding Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defining and Passing Route Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Router Parameters and Props</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eager and Lazy Loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Navigate via Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Routing and Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introducing Vuex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No Central Store </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Centralize the Data Flow with Vuex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add Vuex to Your App</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describing Your State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fetching State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting Specific State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strict Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mutating State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communicate Between Components and the Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Vuex</t>
+  </si>
+  <si>
+    <t>Introduction to Getting Started with Vue</t>
+  </si>
+  <si>
+    <t>Course Overview</t>
+  </si>
+  <si>
+    <t>Introducing Vue Lists and Conditionals</t>
+  </si>
+  <si>
+    <t>Introducing Component Communication</t>
+  </si>
+  <si>
+    <t>Accessing Data</t>
+  </si>
+  <si>
+    <t>Introducing Vuex</t>
+  </si>
+  <si>
+    <t>9, 2019 </t>
+  </si>
+  <si>
+    <t>3h 45m</t>
+  </si>
+  <si>
+    <t>4.8 (10 ratings)</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>John Papa</t>
   </si>
 </sst>
 </file>
@@ -398,7 +2029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -412,6 +2043,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,6 +2064,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="filename1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1061,22 +2701,2774 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="83" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.90981481481481474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="4">
+        <v>97641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>104</v>
+      </c>
+      <c r="R12" t="s">
+        <v>324</v>
+      </c>
+      <c r="S12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T12" t="s">
+        <v>351</v>
+      </c>
+      <c r="U12" t="s">
+        <v>352</v>
+      </c>
+      <c r="V12" t="s">
+        <v>379</v>
+      </c>
+      <c r="W12" t="s">
+        <v>379</v>
+      </c>
+      <c r="X12" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="L13" s="7">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="O13" s="7">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="P13" s="7">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="S13" s="7">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="T13" s="7">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="U13" s="7">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="V13" s="7">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="W13" s="7">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="X13" s="7">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" t="s">
+        <v>220</v>
+      </c>
+      <c r="M14" t="s">
+        <v>232</v>
+      </c>
+      <c r="N14" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" t="s">
+        <v>267</v>
+      </c>
+      <c r="P14" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>304</v>
+      </c>
+      <c r="R14" t="s">
+        <v>325</v>
+      </c>
+      <c r="S14" t="s">
+        <v>349</v>
+      </c>
+      <c r="U14" t="s">
+        <v>353</v>
+      </c>
+      <c r="V14" t="s">
+        <v>104</v>
+      </c>
+      <c r="W14" t="s">
+        <v>104</v>
+      </c>
+      <c r="X14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.11597222222222221</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.15694444444444444</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P15" s="7">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="S15" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="U15" s="7">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="V15" s="7">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="W15" s="7">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="X15" s="7">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>0.13749999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" t="s">
+        <v>209</v>
+      </c>
+      <c r="L16" t="s">
+        <v>221</v>
+      </c>
+      <c r="M16" t="s">
+        <v>233</v>
+      </c>
+      <c r="N16" t="s">
+        <v>243</v>
+      </c>
+      <c r="O16" t="s">
+        <v>268</v>
+      </c>
+      <c r="P16" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>305</v>
+      </c>
+      <c r="R16" t="s">
+        <v>326</v>
+      </c>
+      <c r="S16" t="s">
+        <v>350</v>
+      </c>
+      <c r="U16" t="s">
+        <v>354</v>
+      </c>
+      <c r="V16" t="s">
+        <v>380</v>
+      </c>
+      <c r="W16" t="s">
+        <v>389</v>
+      </c>
+      <c r="X16" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.1125</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="I17" s="7">
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.1125</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="M17" s="7">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="O17" s="7">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="X17" s="7">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0.19513888888888889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" t="s">
+        <v>210</v>
+      </c>
+      <c r="L18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M18" t="s">
+        <v>234</v>
+      </c>
+      <c r="N18" t="s">
+        <v>244</v>
+      </c>
+      <c r="O18" t="s">
+        <v>269</v>
+      </c>
+      <c r="P18" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>306</v>
+      </c>
+      <c r="R18" t="s">
+        <v>327</v>
+      </c>
+      <c r="U18" t="s">
+        <v>355</v>
+      </c>
+      <c r="V18" t="s">
+        <v>381</v>
+      </c>
+      <c r="W18" t="s">
+        <v>380</v>
+      </c>
+      <c r="X18" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="B19" s="7">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.1451388888888889</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="L19" s="7">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="U19" s="7">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="V19" s="7">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="X19" s="7">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0.20069444444444443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" t="s">
+        <v>223</v>
+      </c>
+      <c r="M20" t="s">
+        <v>235</v>
+      </c>
+      <c r="N20" t="s">
+        <v>245</v>
+      </c>
+      <c r="O20" t="s">
+        <v>270</v>
+      </c>
+      <c r="P20" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>307</v>
+      </c>
+      <c r="R20" t="s">
+        <v>328</v>
+      </c>
+      <c r="U20" t="s">
+        <v>356</v>
+      </c>
+      <c r="V20" t="s">
+        <v>382</v>
+      </c>
+      <c r="W20" t="s">
+        <v>390</v>
+      </c>
+      <c r="X20" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.1125</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="J21" s="7">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="L21" s="7">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="M21" s="7">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.15625</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="U21" s="7">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="V21" s="7">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="X21" s="7">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>0.17013888888888887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" t="s">
+        <v>435</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="s">
+        <v>236</v>
+      </c>
+      <c r="N22" t="s">
+        <v>246</v>
+      </c>
+      <c r="O22" t="s">
+        <v>271</v>
+      </c>
+      <c r="P22" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>308</v>
+      </c>
+      <c r="R22" t="s">
+        <v>329</v>
+      </c>
+      <c r="U22" t="s">
+        <v>357</v>
+      </c>
+      <c r="V22" t="s">
+        <v>383</v>
+      </c>
+      <c r="W22" t="s">
+        <v>391</v>
+      </c>
+      <c r="X22" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="B23" s="7">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.17222222222222225</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0.28750000000000003</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="R23" s="7">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="U23" s="7">
+        <v>0.20416666666666669</v>
+      </c>
+      <c r="V23" s="7">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="W23" s="7">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="X23" s="7">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>0.13472222222222222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>436</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="s">
+        <v>237</v>
+      </c>
+      <c r="N24" t="s">
+        <v>247</v>
+      </c>
+      <c r="O24" t="s">
+        <v>272</v>
+      </c>
+      <c r="P24" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>309</v>
+      </c>
+      <c r="R24" t="s">
+        <v>330</v>
+      </c>
+      <c r="U24" t="s">
+        <v>358</v>
+      </c>
+      <c r="V24" t="s">
+        <v>384</v>
+      </c>
+      <c r="W24" t="s">
+        <v>392</v>
+      </c>
+      <c r="X24" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="B25" s="7">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.20277777777777781</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.28125</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.23055555555555554</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.1173611111111111</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="L25" s="7">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.16527777777777777</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0.1125</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="U25" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="V25" s="7">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0.18472222222222223</v>
+      </c>
+      <c r="X25" s="7">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>0.31111111111111112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>437</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>226</v>
+      </c>
+      <c r="M26" t="s">
+        <v>238</v>
+      </c>
+      <c r="N26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O26" t="s">
+        <v>273</v>
+      </c>
+      <c r="P26" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>310</v>
+      </c>
+      <c r="R26" t="s">
+        <v>331</v>
+      </c>
+      <c r="U26" t="s">
+        <v>359</v>
+      </c>
+      <c r="V26" t="s">
+        <v>385</v>
+      </c>
+      <c r="W26" t="s">
+        <v>393</v>
+      </c>
+      <c r="X26" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="E27" s="7">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="7">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="J27" s="7">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="L27" s="7">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0.14305555555555557</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="P27" s="7">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="U27" s="7">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="V27" s="7">
+        <v>0.23819444444444446</v>
+      </c>
+      <c r="W27" s="7">
+        <v>0.15625</v>
+      </c>
+      <c r="X27" s="7">
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>0.15486111111111112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M28" t="s">
+        <v>239</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>274</v>
+      </c>
+      <c r="P28" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>311</v>
+      </c>
+      <c r="R28" t="s">
+        <v>332</v>
+      </c>
+      <c r="U28" t="s">
+        <v>360</v>
+      </c>
+      <c r="V28" t="s">
+        <v>386</v>
+      </c>
+      <c r="W28" t="s">
+        <v>394</v>
+      </c>
+      <c r="X28" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="D29" s="7">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="F29" s="7">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="G29" s="7">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="H29" s="7">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.1173611111111111</v>
+      </c>
+      <c r="L29" s="7">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.10625</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0.11875000000000001</v>
+      </c>
+      <c r="P29" s="7">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="U29" s="7">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="V29" s="7">
+        <v>0.24236111111111111</v>
+      </c>
+      <c r="W29" s="7">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="X29" s="7">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>0.11041666666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>438</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" t="s">
+        <v>228</v>
+      </c>
+      <c r="M30" t="s">
+        <v>240</v>
+      </c>
+      <c r="N30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O30" t="s">
+        <v>275</v>
+      </c>
+      <c r="P30" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>312</v>
+      </c>
+      <c r="R30" t="s">
+        <v>333</v>
+      </c>
+      <c r="U30" t="s">
+        <v>361</v>
+      </c>
+      <c r="V30" t="s">
+        <v>387</v>
+      </c>
+      <c r="W30" t="s">
+        <v>395</v>
+      </c>
+      <c r="X30" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="F31" s="7">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.1125</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="M31" t="s">
+        <v>116</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="U31" s="7">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="X31" s="7">
+        <v>0.20277777777777781</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>0.36041666666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" t="s">
+        <v>229</v>
+      </c>
+      <c r="M32" t="s">
+        <v>241</v>
+      </c>
+      <c r="N32" t="s">
+        <v>251</v>
+      </c>
+      <c r="O32" t="s">
+        <v>276</v>
+      </c>
+      <c r="P32" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>313</v>
+      </c>
+      <c r="R32" t="s">
+        <v>334</v>
+      </c>
+      <c r="U32" t="s">
+        <v>362</v>
+      </c>
+      <c r="V32" t="s">
+        <v>133</v>
+      </c>
+      <c r="W32" t="s">
+        <v>396</v>
+      </c>
+      <c r="X32" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.17222222222222225</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="F33" s="7">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="I33" s="7">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="J33" s="7">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="K33" s="7">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="L33" s="7">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="P33" s="7">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="U33" s="7">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="V33" s="7">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0.23472222222222219</v>
+      </c>
+      <c r="X33" s="7">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>5.486111111111111E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>440</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J34" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" t="s">
+        <v>133</v>
+      </c>
+      <c r="N34" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" t="s">
+        <v>277</v>
+      </c>
+      <c r="P34" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>314</v>
+      </c>
+      <c r="R34" t="s">
+        <v>335</v>
+      </c>
+      <c r="U34" t="s">
+        <v>363</v>
+      </c>
+      <c r="V34" t="s">
+        <v>388</v>
+      </c>
+      <c r="W34" t="s">
+        <v>397</v>
+      </c>
+      <c r="X34" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="7">
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.18819444444444444</v>
+      </c>
+      <c r="H35" s="7">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="I35" s="7">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>116</v>
+      </c>
+      <c r="L35" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35" s="7">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="O35" s="7">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="R35" s="7">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="U35" s="7">
+        <v>0.76180555555555562</v>
+      </c>
+      <c r="V35" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="X35" s="7">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>0.21180555555555555</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>441</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36" t="s">
+        <v>219</v>
+      </c>
+      <c r="L36" t="s">
+        <v>231</v>
+      </c>
+      <c r="M36" t="s">
+        <v>102</v>
+      </c>
+      <c r="N36" t="s">
+        <v>253</v>
+      </c>
+      <c r="O36" t="s">
+        <v>278</v>
+      </c>
+      <c r="P36" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>315</v>
+      </c>
+      <c r="R36" t="s">
+        <v>336</v>
+      </c>
+      <c r="U36" t="s">
+        <v>364</v>
+      </c>
+      <c r="W36" t="s">
+        <v>398</v>
+      </c>
+      <c r="X36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="H37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="7">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="L37" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="M37" s="7">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N37" s="7">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0.2076388888888889</v>
+      </c>
+      <c r="R37" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="U37" s="7">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="W37" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="X37" s="7">
+        <v>0.11527777777777777</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>442</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" t="s">
+        <v>181</v>
+      </c>
+      <c r="I38" t="s">
+        <v>194</v>
+      </c>
+      <c r="K38" t="s">
+        <v>133</v>
+      </c>
+      <c r="L38" t="s">
+        <v>133</v>
+      </c>
+      <c r="N38" t="s">
+        <v>254</v>
+      </c>
+      <c r="O38" t="s">
+        <v>133</v>
+      </c>
+      <c r="P38" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>316</v>
+      </c>
+      <c r="R38" t="s">
+        <v>337</v>
+      </c>
+      <c r="U38" t="s">
+        <v>365</v>
+      </c>
+      <c r="W38" t="s">
+        <v>399</v>
+      </c>
+      <c r="X38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="C39" s="7">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D39" s="7">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="G39" s="7">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K39" s="7">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="L39" s="7">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="O39" s="7">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="P39" s="7">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="U39" s="7">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="W39" s="7">
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="X39" s="7">
+        <v>0.38611111111111113</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>443</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" t="s">
+        <v>195</v>
+      </c>
+      <c r="K40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N40" t="s">
+        <v>255</v>
+      </c>
+      <c r="O40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>317</v>
+      </c>
+      <c r="R40" t="s">
+        <v>338</v>
+      </c>
+      <c r="U40" t="s">
+        <v>366</v>
+      </c>
+      <c r="W40" t="s">
+        <v>400</v>
+      </c>
+      <c r="X40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G41" s="7">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="H41" s="7">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="K41" s="7">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="L41" s="7">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="N41" s="7">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="O41" s="7">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0.17569444444444446</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="U41" s="7">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="W41" s="7">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="X41" s="7">
+        <v>4.5138888888888888E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>444</v>
+      </c>
+      <c r="D42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" t="s">
+        <v>133</v>
+      </c>
+      <c r="N42" t="s">
+        <v>256</v>
+      </c>
+      <c r="P42" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>318</v>
+      </c>
+      <c r="R42" t="s">
+        <v>339</v>
+      </c>
+      <c r="U42" t="s">
+        <v>367</v>
+      </c>
+      <c r="W42" t="s">
+        <v>401</v>
+      </c>
+      <c r="X42" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="E43" s="7">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H43" s="7">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I43" s="7">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0.24722222222222223</v>
+      </c>
+      <c r="R43" s="7">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="U43" s="7">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="W43" s="7">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="X43" s="7">
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>445</v>
+      </c>
+      <c r="I44" t="s">
+        <v>196</v>
+      </c>
+      <c r="N44" t="s">
+        <v>257</v>
+      </c>
+      <c r="P44" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>319</v>
+      </c>
+      <c r="R44" t="s">
+        <v>340</v>
+      </c>
+      <c r="U44" t="s">
+        <v>368</v>
+      </c>
+      <c r="W44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>0.13819444444444443</v>
+      </c>
+      <c r="I45" s="7">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="N45" s="7">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="U45" s="7">
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="W45" s="7">
+        <v>4.2361111111111106E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>446</v>
+      </c>
+      <c r="N46" t="s">
+        <v>258</v>
+      </c>
+      <c r="P46" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>320</v>
+      </c>
+      <c r="R46" t="s">
+        <v>341</v>
+      </c>
+      <c r="U46" t="s">
+        <v>369</v>
+      </c>
+      <c r="W46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="P47" s="7">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="U47" s="7">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="W47" s="7">
+        <v>4.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>447</v>
+      </c>
+      <c r="N48" t="s">
+        <v>259</v>
+      </c>
+      <c r="P48" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>321</v>
+      </c>
+      <c r="R48" t="s">
+        <v>342</v>
+      </c>
+      <c r="U48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="P49" s="7">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="R49" s="7">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="U49" s="7">
+        <v>0.4284722222222222</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>448</v>
+      </c>
+      <c r="N50" t="s">
+        <v>260</v>
+      </c>
+      <c r="P50" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>322</v>
+      </c>
+      <c r="R50" t="s">
+        <v>343</v>
+      </c>
+      <c r="U50" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B51" s="7">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="N51" s="7">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="P51" s="7">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="R51" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U51" s="7">
+        <v>6.0416666666666667E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>449</v>
+      </c>
+      <c r="N52" t="s">
+        <v>261</v>
+      </c>
+      <c r="P52" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>323</v>
+      </c>
+      <c r="R52" t="s">
+        <v>344</v>
+      </c>
+      <c r="U52" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B53" s="7">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="P53" s="7">
+        <v>0.14444444444444446</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0.11875000000000001</v>
+      </c>
+      <c r="U53" s="7">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>450</v>
+      </c>
+      <c r="N54" t="s">
+        <v>262</v>
+      </c>
+      <c r="P54" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>133</v>
+      </c>
+      <c r="R54" t="s">
+        <v>345</v>
+      </c>
+      <c r="U54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0.21041666666666667</v>
+      </c>
+      <c r="U55" s="7">
+        <v>6.1805555555555558E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>451</v>
+      </c>
+      <c r="N56" t="s">
+        <v>263</v>
+      </c>
+      <c r="P56" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>102</v>
+      </c>
+      <c r="R56" t="s">
+        <v>346</v>
+      </c>
+      <c r="U56" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B57" s="7">
+        <v>0.18194444444444444</v>
+      </c>
+      <c r="N57" s="7">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="P57" s="7">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="U57" s="7">
+        <v>0.63680555555555551</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>452</v>
+      </c>
+      <c r="N58" t="s">
+        <v>264</v>
+      </c>
+      <c r="P58" t="s">
+        <v>301</v>
+      </c>
+      <c r="R58" t="s">
+        <v>347</v>
+      </c>
+      <c r="U58" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B59" s="7">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="P59" s="7">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="R59" s="7">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="U59" s="7">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>453</v>
+      </c>
+      <c r="N60" t="s">
+        <v>265</v>
+      </c>
+      <c r="P60" t="s">
+        <v>302</v>
+      </c>
+      <c r="R60" t="s">
+        <v>348</v>
+      </c>
+      <c r="U60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B61" s="7">
+        <v>0.14375000000000002</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="P61" s="7">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="R61" s="7">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="U61" s="7">
+        <v>0.24583333333333335</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>454</v>
+      </c>
+      <c r="N62" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" t="s">
+        <v>303</v>
+      </c>
+      <c r="R62" t="s">
+        <v>102</v>
+      </c>
+      <c r="U62" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B63" s="7">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="N63" s="7">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="P63" s="7">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="R63" s="7">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="U63" s="7">
+        <v>4.7222222222222221E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>455</v>
+      </c>
+      <c r="N64" t="s">
+        <v>102</v>
+      </c>
+      <c r="P64" t="s">
+        <v>133</v>
+      </c>
+      <c r="U64" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B65" s="7">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="N65" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="P65" s="7">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="U65" s="7">
+        <v>0.34166666666666662</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>456</v>
+      </c>
+      <c r="N66" t="s">
+        <v>266</v>
+      </c>
+      <c r="P66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>116</v>
+      </c>
+      <c r="N67" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="P67" s="7">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B69" s="7">
+        <v>3.0555555555555555E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B71" s="7">
+        <v>1.5972222222222224E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="38.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1084,7 +5476,7 @@
         <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1092,31 +5484,29 @@
         <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.90981481481481474</v>
+      <c r="B3" s="2" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="3">
-        <v>397</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1124,16 +5514,14 @@
         <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="4">
-        <v>97641</v>
-      </c>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1149,35 +5537,895 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>482</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>483</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>484</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>485</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>105</v>
+        <v>486</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>106</v>
+        <v>487</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>106</v>
+        <v>488</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>107</v>
+        <v>489</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>108</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>637</v>
+      </c>
+      <c r="B12" t="s">
+        <v>636</v>
+      </c>
+      <c r="C12" t="s">
+        <v>583</v>
+      </c>
+      <c r="D12" t="s">
+        <v>638</v>
+      </c>
+      <c r="E12" t="s">
+        <v>596</v>
+      </c>
+      <c r="F12" t="s">
+        <v>639</v>
+      </c>
+      <c r="G12" t="s">
+        <v>640</v>
+      </c>
+      <c r="H12" t="s">
+        <v>616</v>
+      </c>
+      <c r="I12" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C13" t="s">
+        <v>584</v>
+      </c>
+      <c r="D13" t="s">
+        <v>591</v>
+      </c>
+      <c r="E13" t="s">
+        <v>597</v>
+      </c>
+      <c r="F13" t="s">
+        <v>604</v>
+      </c>
+      <c r="G13" t="s">
+        <v>611</v>
+      </c>
+      <c r="H13" t="s">
+        <v>617</v>
+      </c>
+      <c r="I13" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>578</v>
+      </c>
+      <c r="C14" t="s">
+        <v>585</v>
+      </c>
+      <c r="D14" t="s">
+        <v>592</v>
+      </c>
+      <c r="E14" t="s">
+        <v>598</v>
+      </c>
+      <c r="F14" t="s">
+        <v>605</v>
+      </c>
+      <c r="G14" t="s">
+        <v>612</v>
+      </c>
+      <c r="H14" t="s">
+        <v>618</v>
+      </c>
+      <c r="I14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>579</v>
+      </c>
+      <c r="C15" t="s">
+        <v>586</v>
+      </c>
+      <c r="D15" t="s">
+        <v>593</v>
+      </c>
+      <c r="E15" t="s">
+        <v>599</v>
+      </c>
+      <c r="F15" t="s">
+        <v>606</v>
+      </c>
+      <c r="G15" t="s">
+        <v>613</v>
+      </c>
+      <c r="H15" t="s">
+        <v>619</v>
+      </c>
+      <c r="I15" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>580</v>
+      </c>
+      <c r="C16" t="s">
+        <v>510</v>
+      </c>
+      <c r="D16" t="s">
+        <v>594</v>
+      </c>
+      <c r="E16" t="s">
+        <v>600</v>
+      </c>
+      <c r="F16" t="s">
+        <v>607</v>
+      </c>
+      <c r="G16" t="s">
+        <v>614</v>
+      </c>
+      <c r="H16" t="s">
+        <v>620</v>
+      </c>
+      <c r="I16" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>581</v>
+      </c>
+      <c r="C17" t="s">
+        <v>587</v>
+      </c>
+      <c r="D17" t="s">
+        <v>595</v>
+      </c>
+      <c r="E17" t="s">
+        <v>601</v>
+      </c>
+      <c r="F17" t="s">
+        <v>608</v>
+      </c>
+      <c r="G17" t="s">
+        <v>615</v>
+      </c>
+      <c r="H17" t="s">
+        <v>621</v>
+      </c>
+      <c r="I17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>582</v>
+      </c>
+      <c r="C18" t="s">
+        <v>588</v>
+      </c>
+      <c r="E18" t="s">
+        <v>602</v>
+      </c>
+      <c r="F18" t="s">
+        <v>609</v>
+      </c>
+      <c r="H18" t="s">
+        <v>622</v>
+      </c>
+      <c r="I18" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>589</v>
+      </c>
+      <c r="F19" t="s">
+        <v>610</v>
+      </c>
+      <c r="H19" t="s">
+        <v>623</v>
+      </c>
+      <c r="I19" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B15" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C18" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B19" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B21" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B23" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B24" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B25" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B26" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B28" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B29" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B31" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B33" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B34" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B35" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B36" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B37" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B38" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B40" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B41" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B42" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B43" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B44" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B45" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B46" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B47" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B48" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B50" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B51" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B52" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B53" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B54" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B55" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B56" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B58" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B59" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B60" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B61" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B62" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B63" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="B64" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="B65" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B66" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B68" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B69" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B70" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B71" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B72" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B73" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B74" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B76" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B77" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B78" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B79" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B80" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B81" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -4,17 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vue.js Playbook" sheetId="1" r:id="rId1"/>
-    <sheet name="Vue JS 2 - The Complete Guide" sheetId="2" r:id="rId2"/>
-    <sheet name="Vue JS 2 - The Complete Gui (2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Vue Getting Started" sheetId="5" r:id="rId2"/>
+    <sheet name="Vue JS 2 - The Complete Guide" sheetId="2" r:id="rId3"/>
+    <sheet name="Build Web Apps With Vue.js 2&amp; F" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="filename1" localSheetId="3">Sheet1!$A$1:$A$81</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,20 +21,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="filename1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="720" sourceFile="L:\Training Courses\Vue.js\Selected Courses\Pluralsight Vue Getting Started\filename1.txt" tab="0">
-      <textFields>
-        <textField type="text"/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="688">
   <si>
     <t>Introducing Vue.js</t>
   </si>
@@ -1485,6 +1470,405 @@
     <t>Bonus: Vue CLI 3 - 49:32</t>
   </si>
   <si>
+    <t>Introduction - 07:10</t>
+  </si>
+  <si>
+    <t>Vue.js Basics - 01:05:25</t>
+  </si>
+  <si>
+    <t>The Vue CLI - 01:31:32</t>
+  </si>
+  <si>
+    <t>The Vue Router - 45:06</t>
+  </si>
+  <si>
+    <t>Project One - Ninja Smoothies - 02:28:31</t>
+  </si>
+  <si>
+    <t>Project Two - Real-Time Chat App - 01:13:07</t>
+  </si>
+  <si>
+    <t>Project Three - Geo Ninjas - 02:49:27</t>
+  </si>
+  <si>
+    <t>Firebase Cloud Functions - 21:38</t>
+  </si>
+  <si>
+    <t>ES6 &amp; Extras - 19:11</t>
+  </si>
+  <si>
+    <t>BONUS: Vue CLI 3 - 01:02:32</t>
+  </si>
+  <si>
+    <t>The Net Ninja (Shaun Pelling)</t>
+  </si>
+  <si>
+    <t>11h 43m</t>
+  </si>
+  <si>
+    <t>4.8 (2,166 ratings)</t>
+  </si>
+  <si>
+    <t>10, 2018</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Course Files</t>
+  </si>
+  <si>
+    <t>Text Editor Setup</t>
+  </si>
+  <si>
+    <t>What is Vue.js?</t>
+  </si>
+  <si>
+    <t>Setting up Vue.js (the simple way)</t>
+  </si>
+  <si>
+    <t>The Vue Instance</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Data Binding</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>The Event Object</t>
+  </si>
+  <si>
+    <t>Keyboard Events</t>
+  </si>
+  <si>
+    <t>Two-way Data Binding (v-model)</t>
+  </si>
+  <si>
+    <t>Modifiers</t>
+  </si>
+  <si>
+    <t>Conditional Output with v-if</t>
+  </si>
+  <si>
+    <t>Looping with v-for</t>
+  </si>
+  <si>
+    <t>The Vue CLI</t>
+  </si>
+  <si>
+    <t>Components &amp; Vue Files</t>
+  </si>
+  <si>
+    <t>The data() Function</t>
+  </si>
+  <si>
+    <t>Nesting Components</t>
+  </si>
+  <si>
+    <t>Scoped CSS</t>
+  </si>
+  <si>
+    <t>Passing Data with Props</t>
+  </si>
+  <si>
+    <t>Custom Events</t>
+  </si>
+  <si>
+    <t>Life-cycle Hooks</t>
+  </si>
+  <si>
+    <t>Making Requests with Axios</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Computed Properties (custom search box)</t>
+  </si>
+  <si>
+    <t>What is the Vue Router?</t>
+  </si>
+  <si>
+    <t>Setting up Routes</t>
+  </si>
+  <si>
+    <t>Router Links</t>
+  </si>
+  <si>
+    <t>Route Parameters</t>
+  </si>
+  <si>
+    <t>Watching the $route Object</t>
+  </si>
+  <si>
+    <t>More on Router Links</t>
+  </si>
+  <si>
+    <t>Programmatically Redirecting Users</t>
+  </si>
+  <si>
+    <t>Hash vs History Mode</t>
+  </si>
+  <si>
+    <t>Styling Active Links</t>
+  </si>
+  <si>
+    <t>Project Structure</t>
+  </si>
+  <si>
+    <t>Material Design</t>
+  </si>
+  <si>
+    <t>Navbar Component</t>
+  </si>
+  <si>
+    <t>Index Component</t>
+  </si>
+  <si>
+    <t>Deleting (local) Data</t>
+  </si>
+  <si>
+    <t>Introduction to Firebase</t>
+  </si>
+  <si>
+    <t>Setting up Firestore</t>
+  </si>
+  <si>
+    <t>Installing Firebase</t>
+  </si>
+  <si>
+    <t>Retrieving Firestore Data</t>
+  </si>
+  <si>
+    <t>Deleting Firestore Data</t>
+  </si>
+  <si>
+    <t>Add Smoothie Component</t>
+  </si>
+  <si>
+    <t>Adding Ingredients</t>
+  </si>
+  <si>
+    <t>Outputting Ingredients</t>
+  </si>
+  <si>
+    <t>Saving Records to Firestore</t>
+  </si>
+  <si>
+    <t>Deleting Ingredients</t>
+  </si>
+  <si>
+    <t>Edit Smoothie Route</t>
+  </si>
+  <si>
+    <t>Firestore Queries</t>
+  </si>
+  <si>
+    <t>Edit Smoothie Form</t>
+  </si>
+  <si>
+    <t>Updating Firestore Records</t>
+  </si>
+  <si>
+    <t>Deploying to Firebase</t>
+  </si>
+  <si>
+    <t>Project Review</t>
+  </si>
+  <si>
+    <t>Project  &amp; Setup</t>
+  </si>
+  <si>
+    <t>Project Overview &amp; Setup</t>
+  </si>
+  <si>
+    <t>Processing..</t>
+  </si>
+  <si>
+    <t>Firestore Setup</t>
+  </si>
+  <si>
+    <t>Making a Welcome Screen</t>
+  </si>
+  <si>
+    <t>Passing Props Via Routes</t>
+  </si>
+  <si>
+    <t>Route Guards</t>
+  </si>
+  <si>
+    <t>Creating the Chat Window</t>
+  </si>
+  <si>
+    <t>New Message Component</t>
+  </si>
+  <si>
+    <t>Adding Messages to Firestore</t>
+  </si>
+  <si>
+    <t>Real-Time Events (event listeners)</t>
+  </si>
+  <si>
+    <t>Formatting Times with Moment</t>
+  </si>
+  <si>
+    <t>Auto-scrolling</t>
+  </si>
+  <si>
+    <t>Deploying the App</t>
+  </si>
+  <si>
+    <t>Setting up Firebase</t>
+  </si>
+  <si>
+    <t>Map Component</t>
+  </si>
+  <si>
+    <t>Google Maps API</t>
+  </si>
+  <si>
+    <t>Creating a New Map</t>
+  </si>
+  <si>
+    <t>Creating a Signup Page</t>
+  </si>
+  <si>
+    <t>Firebase Auth &amp; Data Structure</t>
+  </si>
+  <si>
+    <t>Checking if an Alias exists</t>
+  </si>
+  <si>
+    <t>Signing up a User</t>
+  </si>
+  <si>
+    <t>Creating Firestore User Records</t>
+  </si>
+  <si>
+    <t>Wrapping the Vue Instance</t>
+  </si>
+  <si>
+    <t>Logging a User Out</t>
+  </si>
+  <si>
+    <t>Login Component</t>
+  </si>
+  <si>
+    <t>Logging Users In</t>
+  </si>
+  <si>
+    <t>Geolocation API</t>
+  </si>
+  <si>
+    <t>Updating a User’s Location</t>
+  </si>
+  <si>
+    <t>Route Guarding (auth)</t>
+  </si>
+  <si>
+    <t>Conditional Navbar Links</t>
+  </si>
+  <si>
+    <t>Ninja (map) Markers</t>
+  </si>
+  <si>
+    <t>User Profiles</t>
+  </si>
+  <si>
+    <t>User Comments (data discussion)</t>
+  </si>
+  <si>
+    <t>Adding Comments</t>
+  </si>
+  <si>
+    <t>Showing Comments (Real-Time)</t>
+  </si>
+  <si>
+    <t>Some Final Styles</t>
+  </si>
+  <si>
+    <t>Deploying the app</t>
+  </si>
+  <si>
+    <t>What Are Cloud Functions?</t>
+  </si>
+  <si>
+    <t>Creating a Simple Callable Function</t>
+  </si>
+  <si>
+    <t>Calling a Function</t>
+  </si>
+  <si>
+    <t>Intro to Firebase Rules</t>
+  </si>
+  <si>
+    <t>ES6 Arrow Functions</t>
+  </si>
+  <si>
+    <t>ES6 Promises</t>
+  </si>
+  <si>
+    <t>Imports and Exports</t>
+  </si>
+  <si>
+    <t>JavaScript Filter Method</t>
+  </si>
+  <si>
+    <t>Vue CLI 3 Introduction</t>
+  </si>
+  <si>
+    <t>Using the new Vue CLI</t>
+  </si>
+  <si>
+    <t>The CLI Service</t>
+  </si>
+  <si>
+    <t>Custom Presets</t>
+  </si>
+  <si>
+    <t>Adding Plugins</t>
+  </si>
+  <si>
+    <t>Build &amp; Deploy to Firebase</t>
+  </si>
+  <si>
+    <t>Build Targets (Making a Web Component)</t>
+  </si>
+  <si>
+    <t>Using Web Components</t>
+  </si>
+  <si>
+    <t>The Vue GUI (part 1)</t>
+  </si>
+  <si>
+    <t>The Vue GUI (part 2)</t>
+  </si>
+  <si>
+    <t>Using 'vue init' with the New CLI</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>9, 2019 </t>
+  </si>
+  <si>
+    <t>3h 45m</t>
+  </si>
+  <si>
+    <t>John Papa</t>
+  </si>
+  <si>
+    <t>4.8 (10 ratings)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Course Overview</t>
   </si>
   <si>
@@ -1512,472 +1896,196 @@
     <t xml:space="preserve"> Managing Data State with Vuex</t>
   </si>
   <si>
-    <t xml:space="preserve">./1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Course Overview:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">./2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Getting Started with Vue:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">07 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">./3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Displaying Data and Responding to Events:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 </t>
+    <t>Course Overview</t>
+  </si>
+  <si>
+    <t>Introduction to Getting Started with Vue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introducing Vue Data Binding</t>
+  </si>
+  <si>
+    <t>Introducing Vue Lists and Conditionals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introducing Single Component Interactions</t>
+  </si>
+  <si>
+    <t>Introducing Component Communication</t>
+  </si>
+  <si>
+    <t>Accessing Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introducing Routing</t>
+  </si>
+  <si>
+    <t>Introducing Vuex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create Your First Vue App</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creating Bindings in the Header Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rendering Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defining Data Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nesting Components in Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Using the axios HTTP Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adding Routing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No Central Store </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Display Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selecting and Highlighting Items from a List</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creating Computed Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Passing Values to Child Components with Props</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fetching Data from an API</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adding Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Centralize the Data Flow with Vuex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting Familiar with the Vue CLI and Tooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Handling Event </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adding and Removing Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Using Component Lifecycle Hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refactor One Component into Parent and Child Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting Data for Different Environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defining and Passing Route Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add Vuex to Your App</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting and Exploring the Sample Code</t>
   </si>
   <si>
     <t xml:space="preserve"> Accepting User Input with Two</t>
   </si>
   <si>
-    <t>way Bindings.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">./4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Displaying Lists and Conditional Content:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">./5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Interacting within a Component:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">./6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Component Communication:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">37 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">./7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accessing Data:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">43 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">./8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Navigating Vue Apps with Routing:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">46 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">47 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">51 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">./9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Managing Data State with Vuex:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">63 </t>
+    <t xml:space="preserve"> Showing and Hiding Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Watching Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Passing Objects in Props</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parsing Responses and Error Handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Router Parameters and Props</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describing Your State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Learn How a Vue App Starts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Checkbox, Radio Buttons, and Style Bindings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Lists and Conditionals with Master Detail Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creating Custom Date Filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communicating from Child to Parent with Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Accessing Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eager and Lazy Loading</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fetching State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting Started Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select and Class Bindings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Tools Inside of a Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sharing Code with Mixins and Modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Navigate via Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Getting Specific State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Tips for Displaying Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Component Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recap of Routing and Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strict Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mutating State</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communicate Between Components and the Store</t>
   </si>
   <si>
     <t xml:space="preserve"> Final Solution Walk</t>
   </si>
   <si>
-    <t xml:space="preserve">64 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introduction to Getting Started with Vue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create Your First Vue App</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tooling</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Getting Familiar with the Vue CLI and Tooling</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Getting and Exploring the Sample Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Learn How a Vue App Starts</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Getting Started Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introducing Vue Data Binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Creating Bindings in the Header Bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Display Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Handling Event </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Checkbox, Radio Buttons, and Style Bindings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Select and Class Bindings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recap of Tips for Displaying Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introducing Vue Lists and Conditionals</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rendering Lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selecting and Highlighting Items from a List</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adding and Removing Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Showing and Hiding Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recap of Lists and Conditionals with Master Detail Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introducing Single Component Interactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Defining Data Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Creating Computed Properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Using Component Lifecycle Hooks</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Watching Properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Creating Custom Date Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recap of Tools Inside of a Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introducing Component Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nesting Components in Components</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Passing Values to Child Components with Props</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Refactor One Component into Parent and Child Components</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Passing Objects in Props</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Communicating from Child to Parent with Events</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sharing Code with Mixins and Modules</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recap of Component Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Using the axios HTTP Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fetching Data from an API</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Getting Data for Different Environments</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Parsing Responses and Error Handling</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recap of Accessing Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introducing Routing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adding Routing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adding Navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Defining and Passing Route Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Router Parameters and Props</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eager and Lazy Loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Navigate via Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Recap of Routing and Navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Introducing Vuex</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No Central Store </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Centralize the Data Flow with Vuex</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add Vuex to Your App</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Describing Your State</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fetching State</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Getting Specific State</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Strict Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mutating State</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Communicate Between Components and the Store</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Recap of Vuex</t>
-  </si>
-  <si>
-    <t>Introduction to Getting Started with Vue</t>
-  </si>
-  <si>
-    <t>Course Overview</t>
-  </si>
-  <si>
-    <t>Introducing Vue Lists and Conditionals</t>
-  </si>
-  <si>
-    <t>Introducing Component Communication</t>
-  </si>
-  <si>
-    <t>Accessing Data</t>
-  </si>
-  <si>
-    <t>Introducing Vuex</t>
-  </si>
-  <si>
-    <t>9, 2019 </t>
-  </si>
-  <si>
-    <t>3h 45m</t>
-  </si>
-  <si>
-    <t>4.8 (10 ratings)</t>
-  </si>
-  <si>
-    <t>Beginner</t>
-  </si>
-  <si>
-    <t>John Papa</t>
   </si>
 </sst>
 </file>
@@ -2044,9 +2152,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2064,10 +2174,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="filename1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2701,6 +2807,344 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="38.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>624</v>
+      </c>
+      <c r="B12" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" t="s">
+        <v>626</v>
+      </c>
+      <c r="D12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E12" t="s">
+        <v>628</v>
+      </c>
+      <c r="F12" t="s">
+        <v>629</v>
+      </c>
+      <c r="G12" t="s">
+        <v>630</v>
+      </c>
+      <c r="H12" t="s">
+        <v>631</v>
+      </c>
+      <c r="I12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>633</v>
+      </c>
+      <c r="C13" t="s">
+        <v>634</v>
+      </c>
+      <c r="D13" t="s">
+        <v>635</v>
+      </c>
+      <c r="E13" t="s">
+        <v>636</v>
+      </c>
+      <c r="F13" t="s">
+        <v>637</v>
+      </c>
+      <c r="G13" t="s">
+        <v>638</v>
+      </c>
+      <c r="H13" t="s">
+        <v>639</v>
+      </c>
+      <c r="I13" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>641</v>
+      </c>
+      <c r="C14" t="s">
+        <v>642</v>
+      </c>
+      <c r="D14" t="s">
+        <v>643</v>
+      </c>
+      <c r="E14" t="s">
+        <v>644</v>
+      </c>
+      <c r="F14" t="s">
+        <v>645</v>
+      </c>
+      <c r="G14" t="s">
+        <v>646</v>
+      </c>
+      <c r="H14" t="s">
+        <v>647</v>
+      </c>
+      <c r="I14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>649</v>
+      </c>
+      <c r="C15" t="s">
+        <v>650</v>
+      </c>
+      <c r="D15" t="s">
+        <v>651</v>
+      </c>
+      <c r="E15" t="s">
+        <v>652</v>
+      </c>
+      <c r="F15" t="s">
+        <v>653</v>
+      </c>
+      <c r="G15" t="s">
+        <v>654</v>
+      </c>
+      <c r="H15" t="s">
+        <v>655</v>
+      </c>
+      <c r="I15" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>657</v>
+      </c>
+      <c r="C16" t="s">
+        <v>658</v>
+      </c>
+      <c r="D16" t="s">
+        <v>659</v>
+      </c>
+      <c r="E16" t="s">
+        <v>660</v>
+      </c>
+      <c r="F16" t="s">
+        <v>661</v>
+      </c>
+      <c r="G16" t="s">
+        <v>662</v>
+      </c>
+      <c r="H16" t="s">
+        <v>663</v>
+      </c>
+      <c r="I16" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>665</v>
+      </c>
+      <c r="C17" t="s">
+        <v>666</v>
+      </c>
+      <c r="D17" t="s">
+        <v>667</v>
+      </c>
+      <c r="E17" t="s">
+        <v>668</v>
+      </c>
+      <c r="F17" t="s">
+        <v>669</v>
+      </c>
+      <c r="G17" t="s">
+        <v>670</v>
+      </c>
+      <c r="H17" t="s">
+        <v>671</v>
+      </c>
+      <c r="I17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>673</v>
+      </c>
+      <c r="C18" t="s">
+        <v>674</v>
+      </c>
+      <c r="E18" t="s">
+        <v>675</v>
+      </c>
+      <c r="F18" t="s">
+        <v>676</v>
+      </c>
+      <c r="H18" t="s">
+        <v>677</v>
+      </c>
+      <c r="I18" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>679</v>
+      </c>
+      <c r="F19" t="s">
+        <v>680</v>
+      </c>
+      <c r="H19" t="s">
+        <v>681</v>
+      </c>
+      <c r="I19" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>687</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2960,79 +3404,79 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>0.13055555555555556</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>3.125E-2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>0.12083333333333333</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>6.458333333333334E-2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>3.125E-2</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>2.6388888888888889E-2</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>6.5972222222222224E-2</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>3.6805555555555557E-2</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>3.6805555555555557E-2</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>3.125E-2</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>4.7222222222222221E-2</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>7.0833333333333331E-2</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="6">
         <v>6.7361111111111108E-2</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="6">
         <v>0.13263888888888889</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="6">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="6">
         <v>4.027777777777778E-2</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="6">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="6">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="6">
         <v>3.6111111111111115E-2</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="6">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Y13" s="6">
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
@@ -3111,76 +3555,76 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>0.19791666666666666</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>0.10694444444444444</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>0.15069444444444444</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>0.10902777777777778</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>0.12361111111111112</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>0.11597222222222221</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0.20555555555555557</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>0.11944444444444445</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>0.125</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>0.15694444444444444</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>0.14861111111111111</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>0.18888888888888888</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <v>4.2361111111111106E-2</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="6">
         <v>9.4444444444444442E-2</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="6">
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="6">
         <v>0.11458333333333333</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="6">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="6">
         <v>8.2638888888888887E-2</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="6">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="6">
         <v>8.2638888888888887E-2</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="6">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y15" s="6">
         <v>0.13749999999999998</v>
       </c>
     </row>
@@ -3259,76 +3703,76 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>0.17500000000000002</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>0.1125</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>0.21944444444444444</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>0.11944444444444445</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>0.16041666666666668</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>0.16944444444444443</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>0.13194444444444445</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>9.6527777777777768E-2</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>0.1125</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>0.10277777777777779</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>7.2222222222222229E-2</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>0.13263888888888889</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>0.27986111111111112</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>6.3888888888888884E-2</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="6">
         <v>0.12152777777777778</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>0.24791666666666667</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <v>0.25833333333333336</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="6">
         <v>0.11458333333333333</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="6">
         <v>0.13194444444444445</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="6">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="6">
         <v>0.19513888888888889</v>
       </c>
     </row>
@@ -3404,73 +3848,73 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>0.15555555555555556</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>7.5694444444444439E-2</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>8.4722222222222213E-2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>0.1451388888888889</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>0.1076388888888889</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>0.11805555555555557</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>4.7916666666666663E-2</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>0.16944444444444443</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>0.12361111111111112</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>0.21805555555555556</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <v>0.13055555555555556</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <v>0.22500000000000001</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="6">
         <v>0.1763888888888889</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="6">
         <v>0.28402777777777777</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="6">
         <v>0.19583333333333333</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="6">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="6">
         <v>9.0972222222222218E-2</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="6">
         <v>0.1076388888888889</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="6">
         <v>8.6111111111111124E-2</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="6">
         <v>0.20069444444444443</v>
       </c>
     </row>
@@ -3546,73 +3990,73 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>7.9861111111111105E-2</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>0.1125</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>7.1527777777777787E-2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>7.8472222222222221E-2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>0.1673611111111111</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>0.17916666666666667</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>0.13958333333333334</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>0.12638888888888888</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>9.2361111111111116E-2</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>0.11944444444444445</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>4.7222222222222221E-2</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>9.930555555555555E-2</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <v>0.10208333333333335</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <v>0.25694444444444448</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="6">
         <v>0.15625</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="6">
         <v>0.11180555555555556</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="6">
         <v>0.28055555555555556</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="6">
         <v>7.0833333333333331E-2</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="6">
         <v>0.23541666666666669</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="6">
         <v>0.21805555555555556</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="6">
         <v>0.42638888888888887</v>
       </c>
-      <c r="Y21" s="7">
+      <c r="Y21" s="6">
         <v>0.17013888888888887</v>
       </c>
     </row>
@@ -3688,73 +4132,73 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>8.4722222222222213E-2</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>6.0416666666666667E-2</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>0.10069444444444443</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>0.3354166666666667</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>0.20486111111111113</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>0.15277777777777776</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>0.18333333333333335</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>0.20555555555555557</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>0.17222222222222225</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>0.17013888888888887</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <v>0.1111111111111111</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>0.10069444444444443</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <v>0.13958333333333334</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="6">
         <v>0.28750000000000003</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="6">
         <v>0.1388888888888889</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="6">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="6">
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="6">
         <v>0.20416666666666669</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="6">
         <v>0.11944444444444445</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="6">
         <v>0.11180555555555556</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="6">
         <v>0.20486111111111113</v>
       </c>
-      <c r="Y23" s="7">
+      <c r="Y23" s="6">
         <v>0.13472222222222222</v>
       </c>
     </row>
@@ -3830,73 +4274,73 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>7.013888888888889E-2</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>7.7083333333333337E-2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>0.20277777777777781</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>0.24097222222222223</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>0.28125</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>0.23055555555555554</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>0.24652777777777779</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>0.1173611111111111</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>0.14861111111111111</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <v>0.10416666666666667</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <v>0.12291666666666667</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <v>0.16527777777777777</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="6">
         <v>0.11666666666666665</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="6">
         <v>0.1125</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="6">
         <v>0.1111111111111111</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="6">
         <v>0.27152777777777776</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="6">
         <v>0.24166666666666667</v>
       </c>
-      <c r="W25" s="7">
+      <c r="W25" s="6">
         <v>0.18472222222222223</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="6">
         <v>9.0277777777777776E-2</v>
       </c>
-      <c r="Y25" s="7">
+      <c r="Y25" s="6">
         <v>0.31111111111111112</v>
       </c>
     </row>
@@ -3969,70 +4413,70 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>0.11319444444444444</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>9.0972222222222218E-2</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>4.027777777777778E-2</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="G27" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>4.5833333333333337E-2</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <v>0.21458333333333335</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>0.14305555555555557</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <v>0.14652777777777778</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="6">
         <v>0.14791666666666667</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="6">
         <v>8.2638888888888887E-2</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="6">
         <v>0.28958333333333336</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="6">
         <v>0.24791666666666667</v>
       </c>
-      <c r="U27" s="7">
+      <c r="U27" s="6">
         <v>0.10277777777777779</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="6">
         <v>0.23819444444444446</v>
       </c>
-      <c r="W27" s="7">
+      <c r="W27" s="6">
         <v>0.15625</v>
       </c>
-      <c r="X27" s="7">
+      <c r="X27" s="6">
         <v>0.27291666666666664</v>
       </c>
-      <c r="Y27" s="7">
+      <c r="Y27" s="6">
         <v>0.15486111111111112</v>
       </c>
     </row>
@@ -4105,70 +4549,70 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>6.2499999999999995E-3</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>0.19722222222222222</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>9.7916666666666666E-2</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>0.27916666666666667</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>3.4027777777777775E-2</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>9.930555555555555E-2</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>3.125E-2</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>0.15277777777777776</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <v>0.1173611111111111</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <v>6.7361111111111108E-2</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>0.10625</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <v>2.2916666666666669E-2</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="6">
         <v>0.11875000000000001</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="6">
         <v>8.5416666666666655E-2</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="6">
         <v>5.1388888888888894E-2</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="6">
         <v>0.43055555555555558</v>
       </c>
-      <c r="U29" s="7">
+      <c r="U29" s="6">
         <v>0.24097222222222223</v>
       </c>
-      <c r="V29" s="7">
+      <c r="V29" s="6">
         <v>0.24236111111111111</v>
       </c>
-      <c r="W29" s="7">
+      <c r="W29" s="6">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="X29" s="7">
+      <c r="X29" s="6">
         <v>0.26111111111111113</v>
       </c>
-      <c r="Y29" s="7">
+      <c r="Y29" s="6">
         <v>0.11041666666666666</v>
       </c>
     </row>
@@ -4244,67 +4688,67 @@
       <c r="B31" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>4.0972222222222222E-2</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>0.20555555555555557</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>4.9305555555555554E-2</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>0.1125</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>0.26666666666666666</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>0.2298611111111111</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <v>0.16041666666666668</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <v>0.21736111111111112</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <v>0.18541666666666667</v>
       </c>
       <c r="M31" t="s">
         <v>116</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <v>6.25E-2</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="6">
         <v>0.19583333333333333</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="6">
         <v>0.1277777777777778</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="6">
         <v>0.20138888888888887</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="6">
         <v>0.41805555555555557</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U31" s="6">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="6">
         <v>0.20555555555555557</v>
       </c>
-      <c r="W31" s="7">
+      <c r="W31" s="6">
         <v>0.36180555555555555</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X31" s="6">
         <v>0.20277777777777781</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Y31" s="6">
         <v>0.36041666666666666</v>
       </c>
     </row>
@@ -4377,70 +4821,70 @@
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>0.17222222222222225</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>0.11180555555555556</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>0.1076388888888889</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>1.3194444444444444E-2</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <v>0.2298611111111111</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>8.819444444444445E-2</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>9.2361111111111116E-2</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <v>8.819444444444445E-2</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <v>9.2361111111111116E-2</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="6">
         <v>0.1673611111111111</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="6">
         <v>0.10972222222222222</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="6">
         <v>1.1805555555555555E-2</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="6">
         <v>6.5277777777777782E-2</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="6">
         <v>0.28541666666666665</v>
       </c>
-      <c r="U33" s="7">
+      <c r="U33" s="6">
         <v>0.15902777777777777</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33" s="6">
         <v>4.027777777777778E-2</v>
       </c>
-      <c r="W33" s="7">
+      <c r="W33" s="6">
         <v>0.23472222222222219</v>
       </c>
-      <c r="X33" s="7">
+      <c r="X33" s="6">
         <v>0.30486111111111108</v>
       </c>
-      <c r="Y33" s="7">
+      <c r="Y33" s="6">
         <v>5.486111111111111E-2</v>
       </c>
     </row>
@@ -4513,31 +4957,31 @@
       </c>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>0.10833333333333334</v>
       </c>
       <c r="C35" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>9.6527777777777768E-2</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>0.14166666666666666</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>0.18819444444444444</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>9.3055555555555558E-2</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>4.027777777777778E-2</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="K35" t="s">
@@ -4546,37 +4990,37 @@
       <c r="L35" t="s">
         <v>116</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="6">
         <v>8.0555555555555561E-2</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="6">
         <v>0.10555555555555556</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="6">
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="6">
         <v>0.19375000000000001</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="6">
         <v>6.3888888888888884E-2</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="6">
         <v>9.7916666666666666E-2</v>
       </c>
-      <c r="U35" s="7">
+      <c r="U35" s="6">
         <v>0.76180555555555562</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="W35" s="7">
+      <c r="W35" s="6">
         <v>0.11666666666666665</v>
       </c>
-      <c r="X35" s="7">
+      <c r="X35" s="6">
         <v>9.0972222222222218E-2</v>
       </c>
-      <c r="Y35" s="7">
+      <c r="Y35" s="6">
         <v>0.21180555555555555</v>
       </c>
     </row>
@@ -4637,58 +5081,58 @@
       </c>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>7.8472222222222221E-2</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>3.5416666666666666E-2</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>8.1250000000000003E-2</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>0.13333333333333333</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>0.21111111111111111</v>
       </c>
       <c r="H37" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>5.347222222222222E-2</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="6">
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="6">
         <v>0.21180555555555555</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="6">
         <v>0.13125000000000001</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="6">
         <v>0.2076388888888889</v>
       </c>
-      <c r="R37" s="7">
+      <c r="R37" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="U37" s="7">
+      <c r="U37" s="6">
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="W37" s="7">
+      <c r="W37" s="6">
         <v>0.125</v>
       </c>
-      <c r="X37" s="7">
+      <c r="X37" s="6">
         <v>0.11527777777777777</v>
       </c>
     </row>
@@ -4746,55 +5190,55 @@
       </c>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>0.14097222222222222</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>7.2222222222222229E-2</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>0.23541666666666669</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="I39" t="s">
         <v>116</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="6">
         <v>2.9861111111111113E-2</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="6">
         <v>0.19583333333333333</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="6">
         <v>7.0833333333333331E-2</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="6">
         <v>8.6111111111111124E-2</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="6">
         <v>0.20625000000000002</v>
       </c>
-      <c r="R39" s="7">
+      <c r="R39" s="6">
         <v>0.15347222222222223</v>
       </c>
-      <c r="U39" s="7">
+      <c r="U39" s="6">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="W39" s="7">
+      <c r="W39" s="6">
         <v>0.20902777777777778</v>
       </c>
-      <c r="X39" s="7">
+      <c r="X39" s="6">
         <v>0.38611111111111113</v>
       </c>
     </row>
@@ -4849,52 +5293,52 @@
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>8.5416666666666655E-2</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>9.7222222222222224E-3</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="6">
         <v>8.6805555555555566E-2</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="6">
         <v>0.13958333333333334</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="6">
         <v>0.17569444444444446</v>
       </c>
-      <c r="R41" s="7">
+      <c r="R41" s="6">
         <v>0.23611111111111113</v>
       </c>
-      <c r="U41" s="7">
+      <c r="U41" s="6">
         <v>0.40138888888888885</v>
       </c>
-      <c r="W41" s="7">
+      <c r="W41" s="6">
         <v>0.23263888888888887</v>
       </c>
-      <c r="X41" s="7">
+      <c r="X41" s="6">
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
@@ -4940,37 +5384,37 @@
       <c r="B43" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="6">
         <v>0.3354166666666667</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="6">
         <v>0.12083333333333333</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="6">
         <v>0.24722222222222223</v>
       </c>
-      <c r="R43" s="7">
+      <c r="R43" s="6">
         <v>7.4305555555555555E-2</v>
       </c>
-      <c r="U43" s="7">
+      <c r="U43" s="6">
         <v>7.2222222222222229E-2</v>
       </c>
-      <c r="W43" s="7">
+      <c r="W43" s="6">
         <v>0.44166666666666665</v>
       </c>
-      <c r="X43" s="7">
+      <c r="X43" s="6">
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
@@ -5001,28 +5445,28 @@
       </c>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>0.13819444444444443</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="6">
         <v>6.1111111111111116E-2</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="6">
         <v>0.14375000000000002</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="6">
         <v>4.2361111111111106E-2</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="6">
         <v>0.22916666666666666</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U45" s="6">
         <v>9.1666666666666674E-2</v>
       </c>
-      <c r="W45" s="7">
+      <c r="W45" s="6">
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
@@ -5050,25 +5494,25 @@
       </c>
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>7.5694444444444439E-2</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="6">
         <v>0.26250000000000001</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="6">
         <v>9.2361111111111116E-2</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="6">
         <v>0.20555555555555557</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R47" s="6">
         <v>0.13472222222222222</v>
       </c>
-      <c r="U47" s="7">
+      <c r="U47" s="6">
         <v>0.12916666666666668</v>
       </c>
-      <c r="W47" s="7">
+      <c r="W47" s="6">
         <v>4.1666666666666666E-3</v>
       </c>
     </row>
@@ -5093,22 +5537,22 @@
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>0.3972222222222222</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="6">
         <v>0.24791666666666667</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="6">
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="6">
         <v>0.17847222222222223</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49" s="6">
         <v>9.5138888888888884E-2</v>
       </c>
-      <c r="U49" s="7">
+      <c r="U49" s="6">
         <v>0.4284722222222222</v>
       </c>
     </row>
@@ -5133,22 +5577,22 @@
       </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>0.16180555555555556</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="6">
         <v>2.9861111111111113E-2</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="6">
         <v>0.10694444444444444</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51" s="6">
         <v>0.28055555555555556</v>
       </c>
-      <c r="R51" s="7">
+      <c r="R51" s="6">
         <v>9.375E-2</v>
       </c>
-      <c r="U51" s="7">
+      <c r="U51" s="6">
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
@@ -5173,22 +5617,22 @@
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>5.9722222222222225E-2</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N53" s="6">
         <v>0.18055555555555555</v>
       </c>
-      <c r="P53" s="7">
+      <c r="P53" s="6">
         <v>0.14444444444444446</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="Q53" s="6">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="R53" s="7">
+      <c r="R53" s="6">
         <v>0.11875000000000001</v>
       </c>
-      <c r="U53" s="7">
+      <c r="U53" s="6">
         <v>0.125</v>
       </c>
     </row>
@@ -5216,19 +5660,19 @@
       <c r="B55" t="s">
         <v>116</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="6">
         <v>0.25833333333333336</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="6">
         <v>0.13958333333333334</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="Q55" s="6">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="R55" s="7">
+      <c r="R55" s="6">
         <v>0.21041666666666667</v>
       </c>
-      <c r="U55" s="7">
+      <c r="U55" s="6">
         <v>6.1805555555555558E-2</v>
       </c>
     </row>
@@ -5253,22 +5697,22 @@
       </c>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>0.18194444444444444</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N57" s="6">
         <v>5.1388888888888894E-2</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57" s="6">
         <v>5.0694444444444452E-2</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="6">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="R57" s="7">
+      <c r="R57" s="6">
         <v>0.11805555555555557</v>
       </c>
-      <c r="U57" s="7">
+      <c r="U57" s="6">
         <v>0.63680555555555551</v>
       </c>
     </row>
@@ -5290,19 +5734,19 @@
       </c>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>6.5972222222222224E-2</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N59" s="6">
         <v>0.50277777777777777</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="6">
         <v>0.32708333333333334</v>
       </c>
-      <c r="R59" s="7">
+      <c r="R59" s="6">
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="U59" s="7">
+      <c r="U59" s="6">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
@@ -5324,19 +5768,19 @@
       </c>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>0.14375000000000002</v>
       </c>
-      <c r="N61" s="7">
+      <c r="N61" s="6">
         <v>0.27638888888888885</v>
       </c>
-      <c r="P61" s="7">
+      <c r="P61" s="6">
         <v>0.14652777777777778</v>
       </c>
-      <c r="R61" s="7">
+      <c r="R61" s="6">
         <v>8.2638888888888887E-2</v>
       </c>
-      <c r="U61" s="7">
+      <c r="U61" s="6">
         <v>0.24583333333333335</v>
       </c>
     </row>
@@ -5358,19 +5802,19 @@
       </c>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>0.13541666666666666</v>
       </c>
-      <c r="N63" s="7">
+      <c r="N63" s="6">
         <v>4.3750000000000004E-2</v>
       </c>
-      <c r="P63" s="7">
+      <c r="P63" s="6">
         <v>0.29722222222222222</v>
       </c>
-      <c r="R63" s="7">
+      <c r="R63" s="6">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="U63" s="7">
+      <c r="U63" s="6">
         <v>4.7222222222222221E-2</v>
       </c>
     </row>
@@ -5389,16 +5833,16 @@
       </c>
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>5.1388888888888894E-2</v>
       </c>
-      <c r="N65" s="7">
+      <c r="N65" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="P65" s="7">
+      <c r="P65" s="6">
         <v>4.3055555555555562E-2</v>
       </c>
-      <c r="U65" s="7">
+      <c r="U65" s="6">
         <v>0.34166666666666662</v>
       </c>
     </row>
@@ -5417,10 +5861,10 @@
       <c r="B67" t="s">
         <v>116</v>
       </c>
-      <c r="N67" s="7">
+      <c r="N67" s="6">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="P67" s="7">
+      <c r="P67" s="6">
         <v>3.472222222222222E-3</v>
       </c>
     </row>
@@ -5430,7 +5874,7 @@
       </c>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>3.0555555555555555E-2</v>
       </c>
     </row>
@@ -5440,346 +5884,8 @@
       </c>
     </row>
     <row r="71" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>1.5972222222222224E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="38.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>637</v>
-      </c>
-      <c r="B12" t="s">
-        <v>636</v>
-      </c>
-      <c r="C12" t="s">
-        <v>583</v>
-      </c>
-      <c r="D12" t="s">
-        <v>638</v>
-      </c>
-      <c r="E12" t="s">
-        <v>596</v>
-      </c>
-      <c r="F12" t="s">
-        <v>639</v>
-      </c>
-      <c r="G12" t="s">
-        <v>640</v>
-      </c>
-      <c r="H12" t="s">
-        <v>616</v>
-      </c>
-      <c r="I12" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>577</v>
-      </c>
-      <c r="C13" t="s">
-        <v>584</v>
-      </c>
-      <c r="D13" t="s">
-        <v>591</v>
-      </c>
-      <c r="E13" t="s">
-        <v>597</v>
-      </c>
-      <c r="F13" t="s">
-        <v>604</v>
-      </c>
-      <c r="G13" t="s">
-        <v>611</v>
-      </c>
-      <c r="H13" t="s">
-        <v>617</v>
-      </c>
-      <c r="I13" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>578</v>
-      </c>
-      <c r="C14" t="s">
-        <v>585</v>
-      </c>
-      <c r="D14" t="s">
-        <v>592</v>
-      </c>
-      <c r="E14" t="s">
-        <v>598</v>
-      </c>
-      <c r="F14" t="s">
-        <v>605</v>
-      </c>
-      <c r="G14" t="s">
-        <v>612</v>
-      </c>
-      <c r="H14" t="s">
-        <v>618</v>
-      </c>
-      <c r="I14" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>579</v>
-      </c>
-      <c r="C15" t="s">
-        <v>586</v>
-      </c>
-      <c r="D15" t="s">
-        <v>593</v>
-      </c>
-      <c r="E15" t="s">
-        <v>599</v>
-      </c>
-      <c r="F15" t="s">
-        <v>606</v>
-      </c>
-      <c r="G15" t="s">
-        <v>613</v>
-      </c>
-      <c r="H15" t="s">
-        <v>619</v>
-      </c>
-      <c r="I15" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>580</v>
-      </c>
-      <c r="C16" t="s">
-        <v>510</v>
-      </c>
-      <c r="D16" t="s">
-        <v>594</v>
-      </c>
-      <c r="E16" t="s">
-        <v>600</v>
-      </c>
-      <c r="F16" t="s">
-        <v>607</v>
-      </c>
-      <c r="G16" t="s">
-        <v>614</v>
-      </c>
-      <c r="H16" t="s">
-        <v>620</v>
-      </c>
-      <c r="I16" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>581</v>
-      </c>
-      <c r="C17" t="s">
-        <v>587</v>
-      </c>
-      <c r="D17" t="s">
-        <v>595</v>
-      </c>
-      <c r="E17" t="s">
-        <v>601</v>
-      </c>
-      <c r="F17" t="s">
-        <v>608</v>
-      </c>
-      <c r="G17" t="s">
-        <v>615</v>
-      </c>
-      <c r="H17" t="s">
-        <v>621</v>
-      </c>
-      <c r="I17" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>582</v>
-      </c>
-      <c r="C18" t="s">
-        <v>588</v>
-      </c>
-      <c r="E18" t="s">
-        <v>602</v>
-      </c>
-      <c r="F18" t="s">
-        <v>609</v>
-      </c>
-      <c r="H18" t="s">
-        <v>622</v>
-      </c>
-      <c r="I18" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>589</v>
-      </c>
-      <c r="F19" t="s">
-        <v>610</v>
-      </c>
-      <c r="H19" t="s">
-        <v>623</v>
-      </c>
-      <c r="I19" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I23" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I24" t="s">
-        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -5790,642 +5896,944 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="38.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="B2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>500</v>
+      </c>
+      <c r="C12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F12" t="s">
+        <v>554</v>
+      </c>
+      <c r="G12" t="s">
+        <v>554</v>
+      </c>
+      <c r="H12" t="s">
+        <v>591</v>
+      </c>
+      <c r="I12" t="s">
+        <v>595</v>
+      </c>
+      <c r="J12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="E13" t="s">
+        <v>553</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="G13" s="6">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.17222222222222225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B14" t="s">
+        <v>501</v>
+      </c>
+      <c r="C14" t="s">
+        <v>513</v>
+      </c>
+      <c r="D14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.20347222222222219</v>
+      </c>
+      <c r="F14" t="s">
+        <v>532</v>
+      </c>
+      <c r="G14" t="s">
+        <v>532</v>
+      </c>
+      <c r="H14" t="s">
+        <v>592</v>
+      </c>
+      <c r="I14" t="s">
+        <v>596</v>
+      </c>
+      <c r="J14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.53611111111111109</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="E15" t="s">
+        <v>532</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="G15" s="6">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.26319444444444445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>499</v>
+      </c>
+      <c r="B16" t="s">
+        <v>502</v>
+      </c>
+      <c r="C16" t="s">
+        <v>514</v>
+      </c>
+      <c r="D16" t="s">
+        <v>525</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.10625</v>
+      </c>
+      <c r="F16" t="s">
+        <v>556</v>
+      </c>
+      <c r="G16" t="s">
+        <v>567</v>
+      </c>
+      <c r="H16" t="s">
+        <v>593</v>
+      </c>
+      <c r="I16" t="s">
+        <v>597</v>
+      </c>
+      <c r="J16" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.16805555555555554</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="E17" t="s">
+        <v>533</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="G17" s="6">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>503</v>
+      </c>
+      <c r="C18" t="s">
+        <v>515</v>
+      </c>
+      <c r="D18" t="s">
+        <v>526</v>
+      </c>
+      <c r="E18" s="6">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>557</v>
+      </c>
+      <c r="G18" t="s">
+        <v>534</v>
+      </c>
+      <c r="H18" t="s">
+        <v>594</v>
+      </c>
+      <c r="I18" t="s">
+        <v>598</v>
+      </c>
+      <c r="J18" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>0.26527777777777778</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="E19" t="s">
+        <v>534</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.19236111111111112</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.21597222222222223</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.2638888888888889</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" t="s">
+        <v>516</v>
+      </c>
+      <c r="D20" t="s">
+        <v>527</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.26527777777777778</v>
+      </c>
+      <c r="F20" t="s">
+        <v>558</v>
+      </c>
+      <c r="G20" t="s">
+        <v>568</v>
+      </c>
+      <c r="J20" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="E21" t="s">
+        <v>535</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="G21" s="6">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.20138888888888887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" t="s">
+        <v>517</v>
+      </c>
+      <c r="D22" t="s">
+        <v>528</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="F22" t="s">
+        <v>559</v>
+      </c>
+      <c r="G22" t="s">
+        <v>569</v>
+      </c>
+      <c r="J22" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="E23" t="s">
+        <v>536</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.2388888888888889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>506</v>
+      </c>
+      <c r="C24" t="s">
+        <v>518</v>
+      </c>
+      <c r="D24" t="s">
+        <v>529</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="F24" t="s">
+        <v>560</v>
+      </c>
+      <c r="G24" t="s">
+        <v>570</v>
+      </c>
+      <c r="J24" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.23680555555555557</v>
+      </c>
+      <c r="E25" t="s">
+        <v>537</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.25416666666666665</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.37013888888888885</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>507</v>
+      </c>
+      <c r="C26" t="s">
+        <v>519</v>
+      </c>
+      <c r="D26" t="s">
+        <v>530</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="F26" t="s">
+        <v>561</v>
+      </c>
+      <c r="G26" t="s">
+        <v>571</v>
+      </c>
+      <c r="J26" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="E27" t="s">
+        <v>538</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.31736111111111115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" t="s">
+        <v>520</v>
+      </c>
+      <c r="D28" t="s">
+        <v>531</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.24027777777777778</v>
+      </c>
+      <c r="F28" t="s">
+        <v>562</v>
+      </c>
+      <c r="G28" t="s">
+        <v>572</v>
+      </c>
+      <c r="J28" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="D29" s="6">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>539</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.18263888888888891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>509</v>
+      </c>
+      <c r="C30" t="s">
+        <v>521</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="F30" t="s">
+        <v>563</v>
+      </c>
+      <c r="G30" t="s">
+        <v>573</v>
+      </c>
+      <c r="J30" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="E31" t="s">
+        <v>540</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.21527777777777779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>510</v>
+      </c>
+      <c r="C32" t="s">
+        <v>522</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="F32" t="s">
+        <v>564</v>
+      </c>
+      <c r="G32" t="s">
+        <v>574</v>
+      </c>
+      <c r="J32" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E33" t="s">
+        <v>541</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.19930555555555554</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>511</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="F34" t="s">
+        <v>565</v>
+      </c>
+      <c r="G34" t="s">
+        <v>575</v>
+      </c>
+      <c r="J34" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="E35" t="s">
+        <v>542</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="J35" s="6">
+        <v>6.8749999999999992E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E36" s="6">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="F36" t="s">
+        <v>566</v>
+      </c>
+      <c r="G36" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>543</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.3430555555555555</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="6">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="F38" t="s">
+        <v>552</v>
+      </c>
+      <c r="G38" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>544</v>
+      </c>
+      <c r="F39" s="6">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.20138888888888887</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="6">
+        <v>0.18472222222222223</v>
+      </c>
+      <c r="G40" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>545</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.3215277777777778</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E42" s="6">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="G42" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>546</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.2951388888888889</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E44" s="6">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="G44" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>547</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.37291666666666662</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E46" s="6">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="G46" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>548</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E48" s="6">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="G48" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B13" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>549</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.33055555555555555</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="6">
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="G50" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>550</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.29652777777777778</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E52" s="6">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="G52" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>551</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.27916666666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="6">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="G54" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>552</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.35694444444444445</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E56" s="6">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="G56" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B18" t="s">
-        <v>510</v>
-      </c>
-      <c r="C18" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="6">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="6">
+        <v>0.40486111111111112</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="6">
+        <v>0.37916666666666665</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="B23" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="6">
+        <v>0.16527777777777777</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="B25" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="B26" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B27" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="B28" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="B29" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="B31" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B32" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B33" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B34" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B35" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="B36" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B37" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B38" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="B40" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="B41" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="B42" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="B43" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B44" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="B45" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="B46" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="B47" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="B48" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B50" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="B51" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="B52" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="B53" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="B54" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B55" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="B56" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B58" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="B59" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="B60" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="B61" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="B62" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="B63" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="B64" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="B65" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="B66" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="B68" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="B69" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="B70" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="B71" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="B72" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="B73" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="B74" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="B75" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="B76" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="B77" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="B78" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="B79" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="B80" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="B81" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="6">
+        <v>0.1451388888888889</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D04BBC-D928-46DD-AFE6-01315D088826}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vue.js Playbook" sheetId="1" r:id="rId1"/>
@@ -2091,12 +2092,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2104,7 +2105,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2112,7 +2113,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2438,24 +2439,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>90</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
@@ -2495,19 +2496,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -2806,27 +2807,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="38.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -2850,13 +2851,13 @@
         <v>612</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -2872,25 +2873,25 @@
         <v>614</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>615</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>624</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>633</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>641</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>649</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>657</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>665</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>673</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>679</v>
       </c>
@@ -3112,27 +3113,27 @@
         <v>682</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I22" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I23" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I24" t="s">
         <v>687</v>
       </c>
@@ -3144,44 +3145,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="83" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="62.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="57" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="69.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="47.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="35" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>0.90981481481481474</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
@@ -3237,19 +3238,19 @@
         <v>97641</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>457</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>0.13055555555555556</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>426</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>0.19791666666666666</v>
       </c>
@@ -3628,7 +3629,7 @@
         <v>0.13749999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>427</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>0.17500000000000002</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>0.19513888888888889</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>428</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>0.15555555555555556</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>0.20069444444444443</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>429</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>7.9861111111111105E-2</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>0.17013888888888887</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>430</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>8.4722222222222213E-2</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>0.13472222222222222</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>6.2499999999999995E-3</v>
       </c>
@@ -4344,7 +4345,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>437</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B27" s="6">
         <v>0.11319444444444444</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>0.15486111111111112</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>103</v>
       </c>
@@ -4548,7 +4549,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B29" s="6">
         <v>6.2499999999999995E-3</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>0.11041666666666666</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>438</v>
       </c>
@@ -4684,7 +4685,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>116</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>0.36041666666666666</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>439</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="6">
         <v>7.6388888888888895E-2</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>5.486111111111111E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>440</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="6">
         <v>0.10833333333333334</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>0.21180555555555555</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>441</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="6">
         <v>7.8472222222222221E-2</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>0.11527777777777777</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>442</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B39" s="6">
         <v>0.14097222222222222</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>0.38611111111111113</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>443</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B41" s="6">
         <v>8.5416666666666655E-2</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>444</v>
       </c>
@@ -5380,7 +5381,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>116</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>445</v>
       </c>
@@ -5444,7 +5445,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B45" s="6">
         <v>0.13819444444444443</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>446</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B47" s="6">
         <v>7.5694444444444439E-2</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>4.1666666666666666E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>447</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49" s="6">
         <v>0.3972222222222222</v>
       </c>
@@ -5556,7 +5557,7 @@
         <v>0.4284722222222222</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>448</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51" s="6">
         <v>0.16180555555555556</v>
       </c>
@@ -5596,7 +5597,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>449</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B53" s="6">
         <v>5.9722222222222225E-2</v>
       </c>
@@ -5636,7 +5637,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>450</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>116</v>
       </c>
@@ -5676,7 +5677,7 @@
         <v>6.1805555555555558E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>451</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57" s="6">
         <v>0.18194444444444444</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>0.63680555555555551</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>452</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B59" s="6">
         <v>6.5972222222222224E-2</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>453</v>
       </c>
@@ -5767,7 +5768,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B61" s="6">
         <v>0.14375000000000002</v>
       </c>
@@ -5784,7 +5785,7 @@
         <v>0.24583333333333335</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>454</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B63" s="6">
         <v>0.13541666666666666</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>4.7222222222222221E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>455</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B65" s="6">
         <v>5.1388888888888894E-2</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>0.34166666666666662</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>456</v>
       </c>
@@ -5857,7 +5858,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>116</v>
       </c>
@@ -5868,22 +5869,22 @@
         <v>3.472222222222222E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B69" s="6">
         <v>3.0555555555555555E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B71" s="6">
         <v>1.5972222222222224E-2</v>
       </c>
@@ -5895,28 +5896,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="38.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -5924,7 +5925,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -5940,7 +5941,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -5948,7 +5949,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -5956,7 +5957,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
@@ -5972,19 +5973,19 @@
         <v>8124</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>482</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -6045,7 +6046,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>0.11527777777777777</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>0.17222222222222225</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>498</v>
       </c>
@@ -6109,7 +6110,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>0.26319444444444445</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>499</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>0.14166666666666666</v>
       </c>
@@ -6205,7 +6206,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>503</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>0.26527777777777778</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>0.2638888888888889</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>504</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="6">
         <v>0.26250000000000001</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>0.20138888888888887</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>505</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>0.24444444444444446</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>0.2388888888888889</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>506</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="6">
         <v>0.24305555555555555</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>0.37013888888888885</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>507</v>
       </c>
@@ -6424,7 +6425,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="6">
         <v>0.19722222222222222</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>0.31736111111111115</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>508</v>
       </c>
@@ -6470,7 +6471,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="6">
         <v>0.13263888888888889</v>
       </c>
@@ -6493,7 +6494,7 @@
         <v>0.18263888888888891</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>509</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="6">
         <v>0.21666666666666667</v>
       </c>
@@ -6533,7 +6534,7 @@
         <v>0.21527777777777779</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>510</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="6">
         <v>0.32847222222222222</v>
       </c>
@@ -6573,7 +6574,7 @@
         <v>0.19930555555555554</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>511</v>
       </c>
@@ -6590,7 +6591,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="6">
         <v>0.32708333333333334</v>
       </c>
@@ -6607,7 +6608,7 @@
         <v>6.8749999999999992E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E36" s="6">
         <v>0.47847222222222219</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>543</v>
       </c>
@@ -6629,7 +6630,7 @@
         <v>0.3430555555555555</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E38" s="6">
         <v>0.4145833333333333</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>544</v>
       </c>
@@ -6651,7 +6652,7 @@
         <v>0.20138888888888887</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E40" s="6">
         <v>0.18472222222222223</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>545</v>
       </c>
@@ -6667,7 +6668,7 @@
         <v>0.3215277777777778</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E42" s="6">
         <v>0.37708333333333338</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
         <v>546</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>0.2951388888888889</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E44" s="6">
         <v>0.21388888888888891</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
         <v>547</v>
       </c>
@@ -6699,7 +6700,7 @@
         <v>0.37291666666666662</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E46" s="6">
         <v>0.34722222222222227</v>
       </c>
@@ -6707,7 +6708,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>548</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E48" s="6">
         <v>0.3972222222222222</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>549</v>
       </c>
@@ -6731,7 +6732,7 @@
         <v>0.33055555555555555</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E50" s="6">
         <v>0.27916666666666667</v>
       </c>
@@ -6739,7 +6740,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
         <v>550</v>
       </c>
@@ -6747,7 +6748,7 @@
         <v>0.29652777777777778</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E52" s="6">
         <v>0.28611111111111115</v>
       </c>
@@ -6755,7 +6756,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
         <v>551</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>0.27916666666666667</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E54" s="6">
         <v>0.35347222222222219</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
         <v>552</v>
       </c>
@@ -6779,7 +6780,7 @@
         <v>0.35694444444444445</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E56" s="6">
         <v>5.8333333333333327E-2</v>
       </c>
@@ -6787,47 +6788,47 @@
         <v>586</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G57" s="6">
         <v>0.1013888888888889</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G58" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G59" s="6">
         <v>0.40486111111111112</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G60" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G61" s="6">
         <v>0.37916666666666665</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G63" s="6">
         <v>0.16527777777777777</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G65" s="6">
         <v>0.1451388888888889</v>
       </c>
@@ -6835,5 +6836,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>